--- a/processing/test/20230613-a1r-nc-session3-e_transcript.xlsx
+++ b/processing/test/20230613-a1r-nc-session3-e_transcript.xlsx
@@ -6,8 +6,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="20230613-a1r-nc-session3-e_tran" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="proposal" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -62,7 +61,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -73,6 +72,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,340 +361,365 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="12.6328125" customWidth="1" style="3" min="1" max="1"/>
+    <col width="12.5" customWidth="1" style="3" min="1" max="1"/>
+    <col width="13.5" customWidth="1" min="2" max="2"/>
+    <col width="13.5" customWidth="1" min="3" max="3"/>
+    <col width="262.5" customWidth="1" min="4" max="4"/>
+    <col width="16.5" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>speaker</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
+        <is>
+          <t>Order</t>
+        </is>
+      </c>
+      <c r="B1" s="6" t="inlineStr">
+        <is>
+          <t>Speaker</t>
+        </is>
+      </c>
+      <c r="C1" s="6" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="6" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Has Arguments</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>All Arguments Summarized</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Order</t>
-        </is>
-      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>"2:09"</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="D2" s="6" t="inlineStr">
         <is>
           <t>I think we're getting to know each other pretty. Well I'm not sure if there's any more introductions that need but I'm Roy again.</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
+      <c r="E2" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="n"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
         <is>
           <t>"2:17"</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="D3" s="6" t="inlineStr">
         <is>
           <t>And I'm still Jay.</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
-      </c>
+      <c r="E3" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F3" s="6" t="n"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="n">
         <v>10148</v>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>"2:20"</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>Hi everybody. Hope you had a great week.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
+      <c r="E4" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F4" s="6" t="n"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="n">
         <v>48646</v>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
         <is>
           <t>"2:23"</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="D5" s="6" t="inlineStr">
         <is>
           <t>Still Haley.</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="n"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>"2:27"</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F6" s="6" t="n"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
         <is>
           <t>"2:27"</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
+      <c r="D7" s="6" t="inlineStr">
         <is>
           <t>Stay alive.</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
-      </c>
+      <c r="E7" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F7" s="6" t="n"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6" t="n">
         <v>48601</v>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>"2:33"</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
-      </c>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F8" s="6" t="n"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="6" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="n">
         <v>48601</v>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>"2:33"</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="D9" s="6" t="inlineStr">
         <is>
           <t>You telling her?</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
-      </c>
+      <c r="E9" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F9" s="6" t="n"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="6" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="n">
         <v>48601</v>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>"2:33"</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
-      </c>
+      <c r="D10" s="6" t="n"/>
+      <c r="E10" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F10" s="6" t="n"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="n">
         <v>48601</v>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>"2:33"</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="D11" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> I hope so. I keep forgetting to press the fresh finish speaking, but</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
+      <c r="E11" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F11" s="6" t="n"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="n">
         <v>48627</v>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>"2:45"</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="D12" s="6" t="inlineStr">
         <is>
           <t>It's Christina, Christina w.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>11</v>
-      </c>
+      <c r="E12" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F12" s="6" t="n"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="6" t="n">
         <v>48627</v>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>"2:45"</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>12</v>
-      </c>
+      <c r="D13" s="6" t="n"/>
+      <c r="E13" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F13" s="6" t="n"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="6" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
         <is>
           <t>"2:55"</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
+      <c r="D14" s="6" t="inlineStr">
         <is>
           <t>Eleanor, I'm glad they gave you your name instead of a no</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>13</v>
-      </c>
+      <c r="E14" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F14" s="6" t="n"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="6" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="C15" s="6" t="inlineStr">
         <is>
           <t>"10:55"</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
+      <c r="D15" s="6" t="inlineStr">
         <is>
           <t>I don't know, it's just me but I as I was reading these things or listening, it sounded like, you know, all this is to try to pull the wool over someone's head or something or to manipulate situations. And I actually think, why don't we make it as easy as possible to vote. If you have, if your valid Citizen and everything, you should be able to vote. Why are we making it difficult in any way?</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The reader expresses a suspicion towards certain things they have heard or read.
 2. They feel that these things may be an attempt to deceive or manipulate people.
@@ -700,30 +727,30 @@
 4. They question the need for any complexity in the voting process.</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>14</v>
-      </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="6" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="C16" s="6" t="inlineStr">
         <is>
           <t>"11:24"</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
+      <c r="D16" s="6" t="inlineStr">
         <is>
           <t>I concur completely automatic registration. Just everyone online registration. All these things. Yes yes yes.</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> It seems like the text you provided is not well-formed and lacks details. However, I will try to summarize it in a numbered list as you requested:
 1. It is agreed to have a completely automatic registration process.
@@ -732,252 +759,264 @@
 4. The speaker expresses enthusiasm and agreement with the proposal.</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="6" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="n">
         <v>10148</v>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="C17" s="6" t="inlineStr">
         <is>
           <t>"11:36"</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
+      <c r="D17" s="6" t="inlineStr">
         <is>
           <t>I agree. Unfortunately, I happened to be one of those that believe that all of the restrictions on voting are meant to keep the marginalized from, from being able to vote. And I, I just think it should be easier. I mean, there's one vote for every person. Everybody's accounted for, I don't know.</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person believes that restrictions on voting are intended to prevent marginalized groups from voting.
 2. They think that it should be easier for everyone to vote.
 3. There is a belief that every person should have one vote, and every vote should be counted.</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>16</v>
-      </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="6" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="C18" s="6" t="inlineStr">
         <is>
           <t>"12:02"</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
+      <c r="D18" s="6" t="inlineStr">
         <is>
           <t>I agree.</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>17</v>
-      </c>
+      <c r="E18" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F18" s="6" t="n"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="C19" s="6" t="inlineStr">
         <is>
           <t>"12:02"</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
+      <c r="D19" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> I really don't understand why you would not allow anybody of the right age to vote. I mean, I think that's keeping minorities at Bay and I just don't</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>18</v>
-      </c>
+      <c r="E19" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F19" s="6" t="n"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="6" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="n">
         <v>48601</v>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="C20" s="6" t="inlineStr">
         <is>
           <t>"12:18"</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>19</v>
-      </c>
+      <c r="D20" s="6" t="n"/>
+      <c r="E20" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F20" s="6" t="n"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="6" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="n">
         <v>48601</v>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="C21" s="6" t="inlineStr">
         <is>
           <t>"12:18"</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>20</v>
-      </c>
+      <c r="D21" s="6" t="n"/>
+      <c r="E21" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F21" s="6" t="n"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="n">
         <v>48601</v>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="C22" s="6" t="inlineStr">
         <is>
           <t>"12:18"</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="D22" s="6" t="inlineStr">
         <is>
           <t>I'm sorry, am I there? Yeah, I guess so. I just worry about the online registration for ended the ACT. Somehow that's it.</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>21</v>
-      </c>
+      <c r="E22" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F22" s="6" t="n"/>
     </row>
     <row r="23" ht="12.5" customHeight="1">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="6" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="n">
         <v>48646</v>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="C23" s="6" t="inlineStr">
         <is>
           <t>"12:38"</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>22</v>
-      </c>
+      <c r="D23" s="6" t="n"/>
+      <c r="E23" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F23" s="6" t="n"/>
     </row>
     <row r="24" ht="12.5" customHeight="1">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="6" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="n">
         <v>48646</v>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="C24" s="6" t="inlineStr">
         <is>
           <t>"12:38"</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="D24" s="6" t="inlineStr">
         <is>
           <t>The hacking is a pretty valid point, but honestly, almost everything is online these days and I don't understand why they wouldn't just make it simpler if that's an option.</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>23</v>
-      </c>
+      <c r="E24" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F24" s="6" t="n"/>
     </row>
     <row r="25" ht="12.5" customHeight="1">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="6" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="C25" s="6" t="inlineStr">
         <is>
           <t>"12:54"</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="D25" s="6" t="inlineStr">
         <is>
           <t>Yeah, if we can get to where we can Trust online banking and different things, the things that we feel like are really valid. I think the technological issue should be able to be done, I especially if it's not and I mean be on the side of actually voting online. I'm like, why are we not making it easier for people to make it known? But but you'd have to figure out some of the technical and that's part of my area, my job is I think we're getting to the stage where</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>24</v>
-      </c>
+      <c r="E25" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F25" s="6" t="n"/>
     </row>
     <row r="26" ht="12.5" customHeight="1">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="6" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="C26" s="6" t="inlineStr">
         <is>
           <t>"12:54"</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
+      <c r="D26" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Our security if done, right? We could figure this out.</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>25</v>
-      </c>
+      <c r="E26" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F26" s="6" t="n"/>
     </row>
     <row r="27" ht="12.5" customHeight="1">
-      <c r="A27" s="2" t="n">
+      <c r="A27" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="C27" s="6" t="inlineStr">
         <is>
           <t>"13:29"</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
+      <c r="D27" s="6" t="inlineStr">
         <is>
           <t>I agree. We do everything else online. Let's vote online. I would rather stay home and do my ballot and to go out there and stand in line. Like I said, we Bank online, I don't think anything more important than banking. So yeah, let's do it online.</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person thinks that online voting is a good idea.
 2. They prefer to stay home and vote online instead of going out and standing in line.
@@ -985,30 +1024,30 @@
 4. The person thinks that if we can bank online, we should also be able to vote online.</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>26</v>
-      </c>
     </row>
     <row r="28" ht="12.5" customHeight="1">
-      <c r="A28" s="2" t="n">
+      <c r="A28" s="6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="C28" s="6" t="inlineStr">
         <is>
           <t>"13:48"</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
+      <c r="D28" s="6" t="inlineStr">
         <is>
           <t>As far as governmental things go, we pay our taxes online. If they can accept our taxes online, they can let us vote online and some Nations actually have voting apps. Now people can vote on their phones.</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. People pay taxes online.
 2. Government can accept taxes online.
@@ -1016,169 +1055,175 @@
 4. People can vote using their phones.</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>27</v>
-      </c>
     </row>
     <row r="29" ht="12.5" customHeight="1">
-      <c r="A29" s="2" t="n">
+      <c r="A29" s="6" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="C29" s="6" t="inlineStr">
         <is>
           <t>"14:09"</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
+      <c r="D29" s="6" t="inlineStr">
         <is>
           <t>Well, and how valuable would it be to be able to as your voting like you? I don't always remember all the different things or they can just be able to use the internet to look people up and to be able to see what they stand for different things. Right at the time, when voting, I'm like, half the time when I'm voting, like, oh shoot, I forgot. Which way I decided on this one or four things.</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>28</v>
-      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F29" s="6" t="n"/>
     </row>
     <row r="30" ht="12.5" customHeight="1">
-      <c r="A30" s="2" t="n">
+      <c r="A30" s="6" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="n">
         <v>48646</v>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="C30" s="6" t="inlineStr">
         <is>
           <t>"14:31"</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
+      <c r="D30" s="6" t="inlineStr">
         <is>
           <t>I would love that because honestly, I can't remember what I had for dinner yesterday. So being able to look real quick and refresh. My memory would be awesome.</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>29</v>
-      </c>
+      <c r="E30" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F30" s="6" t="n"/>
     </row>
     <row r="31" ht="12.5" customHeight="1">
-      <c r="A31" s="2" t="n">
+      <c r="A31" s="6" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="C31" s="6" t="inlineStr">
         <is>
           <t>"14:43"</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
+      <c r="D31" s="6" t="inlineStr">
         <is>
           <t>Yeah, because sometimes when you're they're voting for commissioner one or two, you don't remember who what your commission is doing. So if you can go back and check it out on something.</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. People may forget the activities of their commissioners when voting for them, particularly commissioners one and two.
 2. It is helpful to have a resource to check the past actions of commissioners.</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>30</v>
-      </c>
     </row>
     <row r="32" ht="12.5" customHeight="1">
-      <c r="A32" s="2" t="n">
+      <c r="A32" s="6" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="n">
         <v>48601</v>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="C32" s="6" t="inlineStr">
         <is>
           <t>"15:00"</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
+      <c r="D32" s="6" t="inlineStr">
         <is>
           <t>Well I just if you can prove that to everybody that security is good. I guess it would be work, just fine. The only thing is that everybody needs an excuse. It seems like we're their person didn't win. In other words, there's no be very I think that the results for a while</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>31</v>
-      </c>
+      <c r="E32" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F32" s="6" t="n"/>
     </row>
     <row r="33" ht="12.5" customHeight="1">
-      <c r="A33" s="2" t="n">
+      <c r="A33" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="6" t="n">
         <v>48601</v>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="C33" s="6" t="inlineStr">
         <is>
           <t>"15:00"</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>32</v>
-      </c>
+      <c r="D33" s="6" t="n"/>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F33" s="6" t="n"/>
     </row>
     <row r="34" ht="12.5" customHeight="1">
-      <c r="A34" s="2" t="n">
+      <c r="A34" s="6" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="C34" s="6" t="inlineStr">
         <is>
           <t>"15:27"</t>
         </is>
       </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="D34" s="6" t="inlineStr">
         <is>
           <t>Well, I have a feeling that for the next few years, there's always going to be some people who are going to say that the elections are not fair and the results are not true. That's just sort of the country we're in. So whatever means we use the vote. I think we're just going to be up against that for a little bit, but I do think that online automatic voter registration would make it just a little more uniform and less.</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>33</v>
-      </c>
+      <c r="E34" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F34" s="6" t="n"/>
     </row>
     <row r="35" ht="12.5" customHeight="1">
-      <c r="A35" s="2" t="n">
+      <c r="A35" s="6" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="n">
         <v>48646</v>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="C35" s="6" t="inlineStr">
         <is>
           <t>"15:55"</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="D35" s="6" t="inlineStr">
         <is>
           <t>Also not having to arrange somewhere for my kids to be while I go stand in line for two hours to vote would be huge because it's honestly a nightmare.</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The individual finds it challenging to arrange for their kids to be taken care of while they go to vote.
 2. The process of standing in line to vote for two hours is described as a nightmare.
@@ -1186,561 +1231,585 @@
 4. The individual finds the voting process time-consuming, as it requires two hours of standing in line.</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>34</v>
-      </c>
     </row>
     <row r="36" ht="12.5" customHeight="1">
-      <c r="A36" s="2" t="n">
+      <c r="A36" s="6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="C36" s="6" t="inlineStr">
         <is>
           <t>"16:08"</t>
         </is>
       </c>
-      <c r="C36" s="4" t="inlineStr">
+      <c r="D36" s="6" t="inlineStr">
         <is>
           <t>Yeah, I remember this is just on having like the registration to be able to vote and I'm like their I just having a hard time seeing the downside of making that super. I love the idea saying yeah just make everyone that has a registered ID or something like that or there are appropriate age that they're just automatically able to vote. Like why would you ever turn anyone away that that is a citizen or has those rights?</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>35</v>
-      </c>
+      <c r="E36" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F36" s="6" t="n"/>
     </row>
     <row r="37" ht="12.5" customHeight="1">
-      <c r="A37" s="2" t="n">
+      <c r="A37" s="6" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="C37" s="6" t="inlineStr">
         <is>
           <t>"16:08"</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="D37" s="6" t="inlineStr">
         <is>
           <t>Different things.</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>36</v>
-      </c>
+      <c r="E37" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F37" s="6" t="n"/>
     </row>
     <row r="38" ht="12.5" customHeight="1">
-      <c r="A38" s="2" t="n">
+      <c r="A38" s="6" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="n">
         <v>10148</v>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="C38" s="6" t="inlineStr">
         <is>
           <t>"16:41"</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="D38" s="6" t="inlineStr">
         <is>
           <t>Yeah, I was always confused growing up as to why you had to go out of your way to register in the first place. Like soon as you become of age, there's so many they fined me for jury duty. They fined me for all sorts of things. There should be an automatic soon as you turn 18, you should be automatically eligible.</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. The text discusses the confusion of the author regarding registration procedures.
-2. The author was fined for not responding to jury duty summons.
-3. The author was fined for various other things.
-4. The author argues for automatic eligibility for registration once a person turns 18.</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>37</v>
+      <c r="F38" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. The speaker was confused about the need to register for various things.
+2. They mentioned being fined for not completing jury duty.
+3. The speaker was also fined for other unspecified reasons.
+4. The speaker believes that as soon as a person turns 18, they should be automatically eligible for these things.</t>
+        </is>
       </c>
     </row>
     <row r="39" ht="12.5" customHeight="1">
-      <c r="A39" s="2" t="n">
+      <c r="A39" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="C39" s="6" t="inlineStr">
         <is>
           <t>"17:01"</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>38</v>
-      </c>
+      <c r="D39" s="6" t="n"/>
+      <c r="E39" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F39" s="6" t="n"/>
     </row>
     <row r="40" ht="12.5" customHeight="1">
-      <c r="A40" s="2" t="n">
+      <c r="A40" s="6" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="C40" s="6" t="inlineStr">
         <is>
           <t>"17:01"</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>39</v>
-      </c>
+      <c r="D40" s="6" t="n"/>
+      <c r="E40" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F40" s="6" t="n"/>
     </row>
     <row r="41" ht="12.5" customHeight="1">
-      <c r="A41" s="2" t="n">
+      <c r="A41" s="6" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="C41" s="6" t="inlineStr">
         <is>
           <t>"17:01"</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
+      <c r="D41" s="6" t="inlineStr">
         <is>
           <t>Agreed, they do. Find you for everything else. So why should I have to fill out the form to be able to vote? I turn 18. I'm an American citizen. I should be able to vote and now I should be able to go to mine.</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>40</v>
-      </c>
+      <c r="E41" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F41" s="6" t="n"/>
     </row>
     <row r="42" ht="12.5" customHeight="1">
-      <c r="A42" s="2" t="n">
+      <c r="A42" s="6" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="n">
         <v>48627</v>
       </c>
-      <c r="B42" s="4" t="inlineStr">
+      <c r="C42" s="6" t="inlineStr">
         <is>
           <t>"17:17"</t>
         </is>
       </c>
-      <c r="C42" s="4" t="inlineStr">
+      <c r="D42" s="6" t="inlineStr">
         <is>
           <t>It's interesting, I was talking to a friend who actually is involved in local elections and trying to get elected and has run for office numerous times and he was talking to me about how in his State, they automatically Purge the voter registrations after two years. And he was actually, he said, prior to his involvement, he would have been on the same opinion as ever.</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>41</v>
-      </c>
+      <c r="E42" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F42" s="6" t="n"/>
     </row>
     <row r="43" ht="12.5" customHeight="1">
-      <c r="A43" s="2" t="n">
+      <c r="A43" s="6" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="n">
         <v>48627</v>
       </c>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="C43" s="6" t="inlineStr">
         <is>
           <t>"17:17"</t>
         </is>
       </c>
-      <c r="C43" s="4" t="inlineStr">
+      <c r="D43" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> One here in this group. But then he was pointing to. He's learned how people are moving so much and changing addresses so much. And I think what I think is the hold up a little bit as we don't have a nationalized central voter registration, we</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>42</v>
-      </c>
+      <c r="E43" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F43" s="6" t="n"/>
     </row>
     <row r="44" ht="12.5" customHeight="1">
-      <c r="A44" s="2" t="n">
+      <c r="A44" s="6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="n">
         <v>48601</v>
       </c>
-      <c r="B44" s="4" t="inlineStr">
+      <c r="C44" s="6" t="inlineStr">
         <is>
           <t>"18:02"</t>
         </is>
       </c>
-      <c r="C44" s="4" t="inlineStr">
+      <c r="D44" s="6" t="inlineStr">
         <is>
           <t>What is going on?</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>43</v>
-      </c>
+      <c r="E44" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F44" s="6" t="n"/>
     </row>
     <row r="45" ht="12.5" customHeight="1">
-      <c r="A45" s="2" t="n">
+      <c r="A45" s="6" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="6" t="n">
         <v>48601</v>
       </c>
-      <c r="B45" s="4" t="inlineStr">
+      <c r="C45" s="6" t="inlineStr">
         <is>
           <t>"18:02"</t>
         </is>
       </c>
-      <c r="C45" s="4" t="inlineStr">
+      <c r="D45" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> They didn't tell me. I was ready to speak, even okay. I just that's fine. I registered a baseball game so it doesn't matter to me. Just as long as it's secure, thank you.</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>44</v>
-      </c>
+      <c r="E45" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F45" s="6" t="n"/>
     </row>
     <row r="46" ht="12.5" customHeight="1">
-      <c r="A46" s="2" t="n">
+      <c r="A46" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6" t="n">
         <v>48627</v>
       </c>
-      <c r="B46" s="4" t="inlineStr">
+      <c r="C46" s="6" t="inlineStr">
         <is>
           <t>"18:23"</t>
         </is>
       </c>
-      <c r="C46" s="4" t="inlineStr">
+      <c r="D46" s="6" t="inlineStr">
         <is>
           <t>Yeah just to finish. The thought we would you know how the only concern I have is like how would somebody be prevented from voting in New York and California if the states aren't talking to each other? That's all</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>45</v>
-      </c>
+      <c r="E46" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F46" s="6" t="n"/>
     </row>
     <row r="47" ht="12.5" customHeight="1">
-      <c r="A47" s="2" t="n">
+      <c r="A47" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="6" t="n">
         <v>10148</v>
       </c>
-      <c r="B47" s="4" t="inlineStr">
+      <c r="C47" s="6" t="inlineStr">
         <is>
           <t>"18:38"</t>
         </is>
       </c>
-      <c r="C47" s="4" t="inlineStr">
+      <c r="D47" s="6" t="inlineStr">
         <is>
           <t>I agree with you, Christina. You're 100% right. I just feel like when it comes to paying taxes, there's a centralized system that finds everybody to make sure that everybody gets their taxes. Why can't they transfer all that information over? I understand, I'm really dumbing it down, but there's a way to do it if they want to do it, they just want to keep people from the poles because the more people that vote, traditionally vote a certain way and the people making the rules don't want people voting.</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker agrees with Christina about a centralized system for paying taxes.
 2. They believe that the same system could be used to ensure everyone pays their taxes.
 3. The speaker acknowledges they are simplifying the issue.
 4. They suggest that there is a way to transfer tax information if there is a desire to do so.
-5. The speaker implies that the people in power do not want to make it easier for people to vote, as more voters may traditionally vote a certain way.</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>46</v>
+5. The speaker implies that the people in power do not want to make it easier for people to vote because it may not benefit them politically.</t>
+        </is>
       </c>
     </row>
     <row r="48" ht="12.5" customHeight="1">
-      <c r="A48" s="2" t="n">
+      <c r="A48" s="6" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B48" s="4" t="inlineStr">
+      <c r="C48" s="6" t="inlineStr">
         <is>
           <t>"19:07"</t>
         </is>
       </c>
-      <c r="C48" s="4" t="inlineStr">
+      <c r="D48" s="6" t="inlineStr">
         <is>
           <t>Yeah, I was just going to make almost the same. Comment, Christina be is if they can figure out how to tax me how to do all the different things. There's got to be a way to do this, and, and I know that there's like timing, but if the error was like, I just barely moved last month and I vote in the wrong state or different things. I just don't think it's going to sway it election in those types of things. So that's at least my opinion is.</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>47</v>
-      </c>
+      <c r="E48" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F48" s="6" t="n"/>
     </row>
     <row r="49" ht="12.5" customHeight="1">
-      <c r="A49" s="2" t="n">
+      <c r="A49" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B49" s="4" t="inlineStr">
+      <c r="C49" s="6" t="inlineStr">
         <is>
           <t>"19:07"</t>
         </is>
       </c>
-      <c r="C49" s="4" t="inlineStr">
+      <c r="D49" s="6" t="inlineStr">
         <is>
           <t>and I'd really rather have the greater turnout and the greater number of votes and having</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>48</v>
-      </c>
+      <c r="E49" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F49" s="6" t="n"/>
     </row>
     <row r="50" ht="12.5" customHeight="1">
-      <c r="A50" s="2" t="n">
+      <c r="A50" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B50" s="4" t="inlineStr">
+      <c r="C50" s="6" t="inlineStr">
         <is>
           <t>"19:07"</t>
         </is>
       </c>
-      <c r="C50" s="4" t="inlineStr">
+      <c r="D50" s="6" t="inlineStr">
         <is>
           <t>few people voting in the wrong way.</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>49</v>
-      </c>
+      <c r="E50" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F50" s="6" t="n"/>
     </row>
     <row r="51" ht="12.5" customHeight="1">
-      <c r="A51" s="2" t="n">
+      <c r="A51" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B51" s="4" t="inlineStr">
+      <c r="C51" s="6" t="inlineStr">
         <is>
           <t>"19:47"</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>50</v>
-      </c>
+      <c r="D51" s="6" t="n"/>
+      <c r="E51" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F51" s="6" t="n"/>
     </row>
     <row r="52" ht="12.5" customHeight="1">
-      <c r="A52" s="2" t="n">
+      <c r="A52" s="6" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B52" s="4" t="inlineStr">
+      <c r="C52" s="6" t="inlineStr">
         <is>
           <t>"19:47"</t>
         </is>
       </c>
-      <c r="C52" s="4" t="inlineStr">
+      <c r="D52" s="6" t="inlineStr">
         <is>
           <t>I don't think.</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>51</v>
-      </c>
+      <c r="E52" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F52" s="6" t="n"/>
     </row>
     <row r="53" ht="12.5" customHeight="1">
-      <c r="A53" s="2" t="n">
+      <c r="A53" s="6" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B53" s="4" t="inlineStr">
+      <c r="C53" s="6" t="inlineStr">
         <is>
           <t>"19:47"</t>
         </is>
       </c>
-      <c r="C53" s="4" t="inlineStr">
+      <c r="D53" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> It would be that many of us, that's moving, that would causing a stair for us not to him vote.</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>52</v>
-      </c>
+      <c r="E53" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F53" s="6" t="n"/>
     </row>
     <row r="54" ht="12.5" customHeight="1">
-      <c r="A54" s="2" t="n">
+      <c r="A54" s="6" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B54" s="4" t="inlineStr">
+      <c r="C54" s="6" t="inlineStr">
         <is>
           <t>"21:48"</t>
         </is>
       </c>
-      <c r="C54" s="4" t="inlineStr">
+      <c r="D54" s="6" t="inlineStr">
         <is>
           <t>Where there's a lot there on there, but I wanted to talk a little bit about the vote by mail ballots. That one is a little bit interesting because you can you can do some things if you have them going a little bit late. This is something like I said I as a data analyst on there you could think you have an area one and not even people won't turn out to vote because that and then the ballots come in after the fact and completely changed the whole</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>53</v>
-      </c>
+      <c r="E54" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F54" s="6" t="n"/>
     </row>
     <row r="55" ht="12.5" customHeight="1">
-      <c r="A55" s="2" t="n">
+      <c r="A55" s="6" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B55" s="4" t="inlineStr">
+      <c r="C55" s="6" t="inlineStr">
         <is>
           <t>"21:48"</t>
         </is>
       </c>
-      <c r="C55" s="4" t="inlineStr">
+      <c r="D55" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> The result of that area being voted on. And so I kind of like the idea of saying no, they have to be there and count it at the beginning.</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>54</v>
-      </c>
+      <c r="E55" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F55" s="6" t="n"/>
     </row>
     <row r="56" ht="12.5" customHeight="1">
-      <c r="A56" s="2" t="n">
+      <c r="A56" s="6" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B56" s="4" t="inlineStr">
+      <c r="C56" s="6" t="inlineStr">
         <is>
           <t>"22:32"</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
+      <c r="D56" s="6" t="inlineStr">
         <is>
           <t>Yeah, I think the balance should be in the date of the election and I think that's the only way you can do it.</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>55</v>
-      </c>
+      <c r="E56" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F56" s="6" t="n"/>
     </row>
     <row r="57" ht="12.5" customHeight="1">
-      <c r="A57" s="2" t="n">
+      <c r="A57" s="6" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B57" s="4" t="inlineStr">
+      <c r="C57" s="6" t="inlineStr">
         <is>
           <t>"22:45"</t>
         </is>
       </c>
-      <c r="C57" s="4" t="inlineStr">
+      <c r="D57" s="6" t="inlineStr">
         <is>
           <t>There is an issue with service members. People who are overseas. Apparently, there's a timeframe of about a week that their ballots. Don't get here. Why? That can't be worked out beforehand that they actually get here on time. That would be nice. So,</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>56</v>
-      </c>
+      <c r="E57" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F57" s="6" t="n"/>
     </row>
     <row r="58" ht="12.5" customHeight="1">
-      <c r="A58" s="2" t="n">
+      <c r="A58" s="6" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B58" s="4" t="inlineStr">
+      <c r="C58" s="6" t="inlineStr">
         <is>
           <t>"22:45"</t>
         </is>
       </c>
-      <c r="C58" s="4" t="inlineStr">
+      <c r="D58" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Yeah, yeah, yeah.</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>57</v>
-      </c>
+      <c r="E58" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F58" s="6" t="n"/>
     </row>
     <row r="59" ht="12.5" customHeight="1">
-      <c r="A59" s="2" t="n">
+      <c r="A59" s="6" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="6" t="n">
         <v>48601</v>
       </c>
-      <c r="B59" s="4" t="inlineStr">
+      <c r="C59" s="6" t="inlineStr">
         <is>
           <t>"23:06"</t>
         </is>
       </c>
-      <c r="C59" s="4" t="inlineStr">
+      <c r="D59" s="6" t="inlineStr">
         <is>
           <t>Yeah, I would like to know how they people overseas. Do they mail their ballots in? Or do they take them to the Embassy or what? I don't know.</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text is about a person's question regarding how people overseas cast their ballots.
 2. The person wants to know if they mail their ballots.
@@ -1748,101 +1817,104 @@
 4. The text reflects the person's uncertainty and lack of knowledge about the process of overseas voting.</t>
         </is>
       </c>
-      <c r="F59" t="n">
-        <v>58</v>
-      </c>
     </row>
     <row r="60" ht="12.5" customHeight="1">
-      <c r="A60" s="2" t="n">
+      <c r="A60" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B60" s="4" t="inlineStr">
+      <c r="C60" s="6" t="inlineStr">
         <is>
           <t>"23:19"</t>
         </is>
       </c>
-      <c r="C60" s="4" t="inlineStr">
+      <c r="D60" s="6" t="inlineStr">
         <is>
           <t>I think the overseas, you're right. There is a challenge there because they probably won't be a the challenge that comes in. If people gaming the system and where people do, in fact that in my area, there was a big thing. I'll just mail in and do all the different things, because it's going to swing some different things. The way we want to do it by doing melon ballots. And I'm not quite sure how to tackle that one because it</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. The challenge of overseas voting exists due to potential issues with people gaming the system.
-2. In the speaker's area, there was a problem with people mailing in votes to sway the results.
+      <c r="F60" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. The challenge of overseas voting exists due to potential issues with people "gaming the system."
+2. In the speaker's area, there was an issue where people would mail in votes to sway the results.
 3. The speaker suggests using a method called "melon ballots" to address the challenge, but is unsure how to implement this solution.</t>
         </is>
       </c>
-      <c r="F60" t="n">
-        <v>59</v>
-      </c>
     </row>
     <row r="61" ht="12.5" customHeight="1">
-      <c r="A61" s="2" t="n">
+      <c r="A61" s="6" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B61" s="4" t="inlineStr">
+      <c r="C61" s="6" t="inlineStr">
         <is>
           <t>"23:19"</t>
         </is>
       </c>
-      <c r="C61" s="4" t="inlineStr">
+      <c r="D61" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> It really can change the opinion of what's going on. And sometimes that's the biggest part of what happens with the different things is what the actual election night, opinions are going on, can really sway the winning or losing of an</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>60</v>
-      </c>
+      <c r="E61" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F61" s="6" t="n"/>
     </row>
     <row r="62" ht="12.5" customHeight="1">
-      <c r="A62" s="2" t="n">
+      <c r="A62" s="6" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="6" t="n">
         <v>10148</v>
       </c>
-      <c r="B62" s="4" t="inlineStr">
+      <c r="C62" s="6" t="inlineStr">
         <is>
           <t>"24:03"</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>61</v>
-      </c>
+      <c r="D62" s="6" t="n"/>
+      <c r="E62" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F62" s="6" t="n"/>
     </row>
     <row r="63" ht="12.5" customHeight="1">
-      <c r="A63" s="2" t="n">
+      <c r="A63" s="6" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="6" t="n">
         <v>10148</v>
       </c>
-      <c r="B63" s="4" t="inlineStr">
+      <c r="C63" s="6" t="inlineStr">
         <is>
           <t>"24:03"</t>
         </is>
       </c>
-      <c r="C63" s="4" t="inlineStr">
+      <c r="D63" s="6" t="inlineStr">
         <is>
           <t>Yeah, so I apologize for veering off but I feel like all these topics started tie into each other and I just feel like it all goes back to our Antiquated system of voting in general. Why are we voting by mail at all? Like Jay said earlier, or somebody said, I believe it was Jay. There's other countries that vote on an app and there's there's so many technologically advanced ways to change the system. So</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text discusses the topic of voting methods.
 2. The speaker apologizes for going off-topic.
@@ -1853,163 +1925,170 @@
 7. The speaker suggests that these advanced methods could be used to change the current voting system.</t>
         </is>
       </c>
-      <c r="F63" t="n">
-        <v>62</v>
-      </c>
     </row>
     <row r="64" ht="12.5" customHeight="1">
-      <c r="A64" s="2" t="n">
+      <c r="A64" s="6" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="6" t="n">
         <v>10148</v>
       </c>
-      <c r="B64" s="4" t="inlineStr">
+      <c r="C64" s="6" t="inlineStr">
         <is>
           <t>"24:03"</t>
         </is>
       </c>
-      <c r="C64" s="4" t="inlineStr">
+      <c r="D64" s="6" t="inlineStr">
         <is>
           <t>really sure how I feel about the voting mail-in ballots. I agree with everybody sort of about the same day and it's difficult. It's just difficult to navigate. I just think the whole system is screwed up.</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>63</v>
-      </c>
+      <c r="E64" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F64" s="6" t="n"/>
     </row>
     <row r="65" ht="12.5" customHeight="1">
-      <c r="A65" s="2" t="n">
+      <c r="A65" s="6" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B65" s="4" t="inlineStr">
+      <c r="C65" s="6" t="inlineStr">
         <is>
           <t>"24:48"</t>
         </is>
       </c>
-      <c r="C65" s="4" t="inlineStr">
+      <c r="D65" s="6" t="inlineStr">
         <is>
           <t>Welcome Tim. We have a new person so high I've mailed in. I've done mail-in voting to the last few years, it has been so unbelievably secure. There's a signature on the inside that has to match a signature. It's on the outside of the envelope and your signature on the outside is Split in Two by the flap of the envelope. There's a tracking number, it's coded, I mean it seems real secure to me.</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>64</v>
-      </c>
+      <c r="E65" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F65" s="6" t="n"/>
     </row>
     <row r="66" ht="12.5" customHeight="1">
-      <c r="A66" s="2" t="n">
+      <c r="A66" s="6" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B66" s="4" t="inlineStr">
+      <c r="C66" s="6" t="inlineStr">
         <is>
           <t>"24:48"</t>
         </is>
       </c>
-      <c r="C66" s="4" t="inlineStr">
+      <c r="D66" s="6" t="inlineStr">
         <is>
           <t>I don't know how people could tame the system. I'm not sure about that.</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>65</v>
-      </c>
+      <c r="E66" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F66" s="6" t="n"/>
     </row>
     <row r="67" ht="12.5" customHeight="1">
-      <c r="A67" s="2" t="n">
+      <c r="A67" s="6" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="6" t="n">
         <v>48646</v>
       </c>
-      <c r="B67" s="4" t="inlineStr">
+      <c r="C67" s="6" t="inlineStr">
         <is>
           <t>"25:23"</t>
         </is>
       </c>
-      <c r="C67" s="4" t="inlineStr">
+      <c r="D67" s="6" t="inlineStr">
         <is>
           <t>I was just going to point out the same thing that Christina did. All of these problems could be solved by online voting. It's we do everything online. It would be so much quicker so much easier and way less room for error.</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>66</v>
-      </c>
+      <c r="E67" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F67" s="6" t="n"/>
     </row>
     <row r="68" ht="12.5" customHeight="1">
-      <c r="A68" s="2" t="n">
+      <c r="A68" s="6" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B68" s="4" t="inlineStr">
+      <c r="C68" s="6" t="inlineStr">
         <is>
           <t>"25:42"</t>
         </is>
       </c>
-      <c r="C68" s="4" t="inlineStr">
+      <c r="D68" s="6" t="inlineStr">
         <is>
           <t>That's exactly what I was going to say. Let the people overseas vote online.</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>67</v>
-      </c>
+      <c r="E68" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F68" s="6" t="n"/>
     </row>
     <row r="69" ht="12.5" customHeight="1">
-      <c r="A69" s="2" t="n">
+      <c r="A69" s="6" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="6" t="n">
         <v>48776</v>
       </c>
-      <c r="B69" s="4" t="inlineStr">
+      <c r="C69" s="6" t="inlineStr">
         <is>
           <t>"25:51"</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>68</v>
-      </c>
+      <c r="D69" s="6" t="n"/>
+      <c r="E69" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F69" s="6" t="n"/>
     </row>
     <row r="70" ht="12.5" customHeight="1">
-      <c r="A70" s="2" t="n">
+      <c r="A70" s="6" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="6" t="n">
         <v>48776</v>
       </c>
-      <c r="B70" s="4" t="inlineStr">
+      <c r="C70" s="6" t="inlineStr">
         <is>
           <t>"25:51"</t>
         </is>
       </c>
-      <c r="C70" s="4" t="inlineStr">
+      <c r="D70" s="6" t="inlineStr">
         <is>
           <t>Hi-yah. I might take on this is the make it number one as easy as possible for people to vote because as people get older it makes it harder for them to do simple things. I think. So we want to include the people that are are somewhat compromised in this aspect, I think. But number most important thing is that it's secured. So, as long as the</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The goal is to make it easy for people to vote.
 2. It is recognized that as people age, they may find it harder to do simple tasks.
@@ -2017,373 +2096,382 @@
 4. The most important aspect is ensuring the security of the voting process.</t>
         </is>
       </c>
-      <c r="F70" t="n">
-        <v>69</v>
-      </c>
     </row>
     <row r="71" ht="12.5" customHeight="1">
-      <c r="A71" s="2" t="n">
+      <c r="A71" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="6" t="n">
         <v>48776</v>
       </c>
-      <c r="B71" s="4" t="inlineStr">
+      <c r="C71" s="6" t="inlineStr">
         <is>
           <t>"25:51"</t>
         </is>
       </c>
-      <c r="C71" s="4" t="inlineStr">
+      <c r="D71" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Various options that exist that are in that Encompass. Both of these two things. I think it's fine for for voting and mail or doing it online, or</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. Option for voting: in person or online
 2. Option for mail: traditional mail or online mail</t>
         </is>
       </c>
-      <c r="F71" t="n">
-        <v>70</v>
-      </c>
     </row>
     <row r="72" ht="12.5" customHeight="1">
-      <c r="A72" s="2" t="n">
+      <c r="A72" s="6" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B72" s="4" t="inlineStr">
+      <c r="C72" s="6" t="inlineStr">
         <is>
           <t>"26:36"</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>71</v>
-      </c>
+      <c r="D72" s="6" t="n"/>
+      <c r="E72" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F72" s="6" t="n"/>
     </row>
     <row r="73" ht="12.5" customHeight="1">
-      <c r="A73" s="2" t="n">
+      <c r="A73" s="6" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B73" s="4" t="inlineStr">
+      <c r="C73" s="6" t="inlineStr">
         <is>
           <t>"26:36"</t>
         </is>
       </c>
-      <c r="C73" s="4" t="inlineStr">
+      <c r="D73" s="6" t="inlineStr">
         <is>
           <t>Dad parts of me, think the easiest way to fix this is to make it so that it may be. You have a unique identifiers. You're not putting your information out there and different things but have like for every area, you can actually go and see that your vote went in the way that you expected it to and maybe that caused a bunch of politics of people say, well I want to change it now and I'm not I did something different but</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>72</v>
-      </c>
+      <c r="E73" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F73" s="6" t="n"/>
     </row>
     <row r="74" ht="12.5" customHeight="1">
-      <c r="A74" s="2" t="n">
+      <c r="A74" s="6" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B74" s="4" t="inlineStr">
+      <c r="C74" s="6" t="inlineStr">
         <is>
           <t>"26:36"</t>
         </is>
       </c>
-      <c r="C74" s="4" t="inlineStr">
+      <c r="D74" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> but it seems like there could be a way to self assess and say. Yep, my vote was counted the way I intended.</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. It is important to ensure that votes are counted accurately.
-2. Voters should have the ability to confirm that their votes were counted as they intended.
-3. This would require a system for voters to independently assess and confirm that their votes were correctly recorded and included in the final tally.</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>73</v>
+      <c r="F74" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. It appears that there might be a method to self-assess and confirm that a vote was counted as intended.
+2. This would provide assurance to the individual who cast the vote.</t>
+        </is>
       </c>
     </row>
     <row r="75" ht="12.5" customHeight="1">
-      <c r="A75" s="2" t="n">
+      <c r="A75" s="6" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B75" s="4" t="inlineStr">
+      <c r="C75" s="6" t="inlineStr">
         <is>
           <t>"27:12"</t>
         </is>
       </c>
-      <c r="C75" s="4" t="inlineStr">
+      <c r="D75" s="6" t="inlineStr">
         <is>
           <t>Well with my mail in vote, I do get to do that because it's tracked. So I get to know exactly when my vote it's the voting booth so to speak.</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>74</v>
-      </c>
+      <c r="E75" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F75" s="6" t="n"/>
     </row>
     <row r="76" ht="12.5" customHeight="1">
-      <c r="A76" s="2" t="n">
+      <c r="A76" s="6" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" s="6" t="n">
         <v>10148</v>
       </c>
-      <c r="B76" s="4" t="inlineStr">
+      <c r="C76" s="6" t="inlineStr">
         <is>
           <t>"27:25"</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F76" t="n">
-        <v>75</v>
-      </c>
+      <c r="D76" s="6" t="n"/>
+      <c r="E76" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F76" s="6" t="n"/>
     </row>
     <row r="77" ht="12.5" customHeight="1">
-      <c r="A77" s="2" t="n">
+      <c r="A77" s="6" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" s="6" t="n">
         <v>10148</v>
       </c>
-      <c r="B77" s="4" t="inlineStr">
+      <c r="C77" s="6" t="inlineStr">
         <is>
           <t>"27:25"</t>
         </is>
       </c>
-      <c r="C77" s="4" t="inlineStr">
+      <c r="D77" s="6" t="inlineStr">
         <is>
           <t>I know, like I'm thinking if there was some sort of online system, we you know what? If we use like social security number or you know, there's other people who don't have a social, maybe they have a tax ID, everybody has some sort of identifier, right? And when were claiming our dependence on our taxes it they know somebody else has used your social, you know, so even if there was some attempt at fraud, if there was an</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The idea of an online system is proposed.
-2. It is suggested that a social security number or tax ID can be used for identification.
+2. It is suggested that a social security number or tax ID can be used for identification in this system.
 3. It is mentioned that everyone has some sort of identifier.
-4. When claiming dependents on taxes, it is noted that if someone else has already used your social security number, it would be known.
-5. The possibility of fraud is brought up.
-6. It is suggested that even if there was an attempt at fraud, the use of an identifier would make it known.</t>
-        </is>
-      </c>
-      <c r="F77" t="n">
-        <v>76</v>
+4. When claiming dependents on taxes, the system can detect if someone else has already used the same social security number, preventing potential fraud.</t>
+        </is>
       </c>
     </row>
     <row r="78" ht="12.5" customHeight="1">
-      <c r="A78" s="2" t="n">
+      <c r="A78" s="6" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" s="6" t="n">
         <v>10148</v>
       </c>
-      <c r="B78" s="4" t="inlineStr">
+      <c r="C78" s="6" t="inlineStr">
         <is>
           <t>"27:25"</t>
         </is>
       </c>
-      <c r="C78" s="4" t="inlineStr">
+      <c r="D78" s="6" t="inlineStr">
         <is>
           <t>Diet database that was you know we were putting all this information to it should flag it right away and we should be able to track our vote in there. There's a record of</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F78" t="n">
-        <v>77</v>
-      </c>
+      <c r="E78" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F78" s="6" t="n"/>
     </row>
     <row r="79" ht="12.5" customHeight="1">
-      <c r="A79" s="2" t="n">
+      <c r="A79" s="6" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B79" s="4" t="inlineStr">
+      <c r="C79" s="6" t="inlineStr">
         <is>
           <t>"28:05"</t>
         </is>
       </c>
-      <c r="C79" s="4" t="inlineStr">
+      <c r="D79" s="6" t="inlineStr">
         <is>
           <t>Yeah. And this all seems to be going to the fact that we need to have a National voting registration system. Letting individual states. Do things individually. Is it just means that certain people are going to be missed out. They're not going to be counted. I know that they're there are people. Some some people are fuming that college students get to vote where they live ten months of the year because it's</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F79" t="n">
-        <v>78</v>
-      </c>
+      <c r="E79" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F79" s="6" t="n"/>
     </row>
     <row r="80" ht="12.5" customHeight="1">
-      <c r="A80" s="2" t="n">
+      <c r="A80" s="6" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B80" s="4" t="inlineStr">
+      <c r="C80" s="6" t="inlineStr">
         <is>
           <t>"28:05"</t>
         </is>
       </c>
-      <c r="C80" s="4" t="inlineStr">
+      <c r="D80" s="6" t="inlineStr">
         <is>
           <t>at their registered address at home. What does they live at College? 10 months of the year? They should be able to vote there.</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. Some people live at their home registered address for only 2 months in a year.
 2. For the remaining 10 months, they live at their college.
 3. These individuals should be able to vote at their college address.</t>
         </is>
       </c>
-      <c r="F80" t="n">
-        <v>79</v>
-      </c>
     </row>
     <row r="81" ht="12.5" customHeight="1">
-      <c r="A81" s="2" t="n">
+      <c r="A81" s="6" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B81" s="4" t="inlineStr">
+      <c r="C81" s="6" t="inlineStr">
         <is>
           <t>"29:05"</t>
         </is>
       </c>
-      <c r="C81" s="4" t="inlineStr">
+      <c r="D81" s="6" t="inlineStr">
         <is>
           <t>Looks like they say we should be asking something about the voting machines. I'm all for net, same thing, National voting machines. One machine one way of counting them in Florida. We actually fill out a paper ballot, feed it into a machine that reads it and then the paper ballot is kept, so they can verify it. And I'm sure that has something to do with the gore Bush election and the Florida Chad's and all that stuff. But</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F81" t="n">
-        <v>80</v>
-      </c>
+      <c r="E81" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F81" s="6" t="n"/>
     </row>
     <row r="82" ht="12.5" customHeight="1">
-      <c r="A82" s="2" t="n">
+      <c r="A82" s="6" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B82" s="4" t="inlineStr">
+      <c r="C82" s="6" t="inlineStr">
         <is>
           <t>"29:05"</t>
         </is>
       </c>
-      <c r="C82" s="4" t="inlineStr">
+      <c r="D82" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> but we have a paper ballot that you can go back and it can be checked. So, but I'm all for National voting regularity.</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>81</v>
-      </c>
+      <c r="E82" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F82" s="6" t="n"/>
     </row>
     <row r="83" ht="12.5" customHeight="1">
-      <c r="A83" s="2" t="n">
+      <c r="A83" s="6" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" s="6" t="n">
         <v>48646</v>
       </c>
-      <c r="B83" s="4" t="inlineStr">
+      <c r="C83" s="6" t="inlineStr">
         <is>
           <t>"30:58"</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F83" t="n">
-        <v>82</v>
-      </c>
+      <c r="D83" s="6" t="n"/>
+      <c r="E83" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F83" s="6" t="n"/>
     </row>
     <row r="84" ht="12.5" customHeight="1">
-      <c r="A84" s="2" t="n">
+      <c r="A84" s="6" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" s="6" t="n">
         <v>48646</v>
       </c>
-      <c r="B84" s="4" t="inlineStr">
+      <c r="C84" s="6" t="inlineStr">
         <is>
           <t>"30:58"</t>
         </is>
       </c>
-      <c r="C84" s="4" t="inlineStr">
+      <c r="D84" s="6" t="inlineStr">
         <is>
           <t>I think having Nationwide standards and some sort of system in place is a great idea. Because what's going on now with the state by state rules is a huge mess</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. The text supports the idea of having nationwide standards and a system in place.
+      <c r="F84" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. The text proposes having nationwide standards and a system in place as a good idea.
 2. The current situation with state-by-state rules is described as a "huge mess."</t>
         </is>
       </c>
-      <c r="F84" t="n">
-        <v>83</v>
-      </c>
     </row>
     <row r="85" ht="12.5" customHeight="1">
-      <c r="A85" s="2" t="n">
+      <c r="A85" s="6" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B85" s="4" t="inlineStr">
+      <c r="C85" s="6" t="inlineStr">
         <is>
           <t>"31:13"</t>
         </is>
       </c>
-      <c r="C85" s="4" t="inlineStr">
+      <c r="D85" s="6" t="inlineStr">
         <is>
           <t>I agree that there needs to be some level of national oversight, but I also agree that I like, how the states can keep the national government in check as well. And so trying to figure out how to make sure that the government isn't able to manipulate things the way that they want it to end up going. I, this is the hard part. This is where it gets really tricky on trying to figure out where the bow</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. There should be a level of national oversight regarding certain matters.
 2. The speaker appreciates the role of states in keeping the national government in check.
@@ -2391,53 +2479,54 @@
 4. The speaker acknowledges the difficulty in finding the right balance between national and state authority, as it is a delicate and complex issue.</t>
         </is>
       </c>
-      <c r="F85" t="n">
-        <v>84</v>
-      </c>
     </row>
     <row r="86" ht="12.5" customHeight="1">
-      <c r="A86" s="2" t="n">
+      <c r="A86" s="6" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B86" s="4" t="inlineStr">
+      <c r="C86" s="6" t="inlineStr">
         <is>
           <t>"31:13"</t>
         </is>
       </c>
-      <c r="C86" s="4" t="inlineStr">
+      <c r="D86" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Balances, but I think there needs to be some level of national governance.</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F86" t="n">
-        <v>85</v>
-      </c>
+      <c r="E86" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F86" s="6" t="n"/>
     </row>
     <row r="87" ht="12.5" customHeight="1">
-      <c r="A87" s="2" t="n">
+      <c r="A87" s="6" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B87" s="4" t="inlineStr">
+      <c r="C87" s="6" t="inlineStr">
         <is>
           <t>"31:48"</t>
         </is>
       </c>
-      <c r="C87" s="4" t="inlineStr">
+      <c r="D87" s="6" t="inlineStr">
         <is>
           <t>Isn't that why we have Representatives? I think, I mean isn't that what they're supposed to be doing if the world worked right?</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The purpose of Representatives is to represent the people in a democratic system.
 2. If the world worked correctly, Representatives would be doing the following:
@@ -2447,333 +2536,346 @@
 d. Helping to create and implement policies that benefit the people they represent.</t>
         </is>
       </c>
-      <c r="F87" t="n">
-        <v>86</v>
-      </c>
     </row>
     <row r="88" ht="12.5" customHeight="1">
-      <c r="A88" s="2" t="n">
+      <c r="A88" s="6" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B88" s="4" t="inlineStr">
+      <c r="C88" s="6" t="inlineStr">
         <is>
           <t>"31:59"</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F88" t="n">
-        <v>87</v>
-      </c>
+      <c r="D88" s="6" t="n"/>
+      <c r="E88" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F88" s="6" t="n"/>
     </row>
     <row r="89" ht="12.5" customHeight="1">
-      <c r="A89" s="2" t="n">
+      <c r="A89" s="6" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B89" s="4" t="inlineStr">
+      <c r="C89" s="6" t="inlineStr">
         <is>
           <t>"31:59"</t>
         </is>
       </c>
-      <c r="C89" s="4" t="inlineStr">
+      <c r="D89" s="6" t="inlineStr">
         <is>
           <t>I think.</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F89" t="n">
-        <v>88</v>
-      </c>
+      <c r="E89" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F89" s="6" t="n"/>
     </row>
     <row r="90" ht="12.5" customHeight="1">
-      <c r="A90" s="2" t="n">
+      <c r="A90" s="6" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B90" s="4" t="inlineStr">
+      <c r="C90" s="6" t="inlineStr">
         <is>
           <t>"31:59"</t>
         </is>
       </c>
-      <c r="C90" s="4" t="inlineStr">
+      <c r="D90" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> It should be a world system because state-by-state, you just it'd be different if we could trust people again and everybody would do the right thing but that's not the case. So you gotta have Tim looking at Tim or somebody over your shoulder, are you counting? It is a mess and I didn't mean you too.</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F90" t="n">
-        <v>89</v>
-      </c>
+      <c r="E90" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F90" s="6" t="n"/>
     </row>
     <row r="91" ht="12.5" customHeight="1">
-      <c r="A91" s="2" t="n">
+      <c r="A91" s="6" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" s="6" t="n">
         <v>48776</v>
       </c>
-      <c r="B91" s="4" t="inlineStr">
+      <c r="C91" s="6" t="inlineStr">
         <is>
           <t>"32:33"</t>
         </is>
       </c>
-      <c r="C91" s="4" t="inlineStr">
+      <c r="D91" s="6" t="inlineStr">
         <is>
           <t>I think it'd be best if we have both the national and state level. Involvement than that way, there's a little bit more checks and balances</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. It is recommended to have the involvement of both national and state level authorities.
-2. This will result in a system of checks and balances.</t>
-        </is>
-      </c>
-      <c r="F91" t="n">
-        <v>90</v>
+      <c r="F91" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. It is recommended to have the involvement of both national and state level governments.
+2. This would result in a system of checks and balances.</t>
+        </is>
       </c>
     </row>
     <row r="92" ht="12.5" customHeight="1">
-      <c r="A92" s="2" t="n">
+      <c r="A92" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B92" s="4" t="inlineStr">
+      <c r="C92" s="6" t="inlineStr">
         <is>
           <t>"32:44"</t>
         </is>
       </c>
-      <c r="C92" s="4" t="inlineStr">
+      <c r="D92" s="6" t="inlineStr">
         <is>
           <t>But then what if one state wants one entirely different way of voting? I mean, as we have it right now, we were talking last week about ranked Choice voting is only in two states, but that seems to be something that might work nationally, but if we start letting all the different states have their input, again, we're going to end up exactly where we are right now. I think</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F92" t="n">
-        <v>91</v>
-      </c>
+      <c r="E92" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F92" s="6" t="n"/>
     </row>
     <row r="93" ht="12.5" customHeight="1">
-      <c r="A93" s="2" t="n">
+      <c r="A93" s="6" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B93" s="4" t="inlineStr">
+      <c r="C93" s="6" t="inlineStr">
         <is>
           <t>"33:10"</t>
         </is>
       </c>
-      <c r="C93" s="4" t="inlineStr">
+      <c r="D93" s="6" t="inlineStr">
         <is>
           <t>Yeah these are really difficult things to try to figure out and to degree. Like I like the idea of having a national like registry so that you know that people are online voting in one area and different things and that could be managed that way but then I'm little bit more open to say well if you want to do things a little bit different with how your state may, your state has different needs for different things that way.</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The idea of having a national registry for online voting is difficult to figure out.
 2. A national registry would allow for the management of people voting in one area.
 3. The speaker is open to the idea of states having different methods for online voting, as states have different needs.</t>
         </is>
       </c>
-      <c r="F93" t="n">
-        <v>92</v>
-      </c>
     </row>
     <row r="94" ht="12.5" customHeight="1">
-      <c r="A94" s="2" t="n">
+      <c r="A94" s="6" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B94" s="4" t="inlineStr">
+      <c r="C94" s="6" t="inlineStr">
         <is>
           <t>"33:10"</t>
         </is>
       </c>
-      <c r="C94" s="4" t="inlineStr">
+      <c r="D94" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Your state operates or the size, or the difference that maybe those could be a little bit of flexibility. So you have</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F94" t="n">
-        <v>93</v>
-      </c>
+      <c r="E94" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F94" s="6" t="n"/>
     </row>
     <row r="95" ht="12.5" customHeight="1">
-      <c r="A95" s="2" t="n">
+      <c r="A95" s="6" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B95" s="4" t="inlineStr">
+      <c r="C95" s="6" t="inlineStr">
         <is>
           <t>"33:10"</t>
         </is>
       </c>
-      <c r="C95" s="4" t="inlineStr">
+      <c r="D95" s="6" t="inlineStr">
         <is>
           <t>Pieces on both sides that are governing.</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
-        <v>94</v>
-      </c>
+      <c r="E95" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F95" s="6" t="n"/>
     </row>
     <row r="96" ht="12.5" customHeight="1">
-      <c r="A96" s="2" t="n">
+      <c r="A96" s="6" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B96" s="4" t="inlineStr">
+      <c r="C96" s="6" t="inlineStr">
         <is>
           <t>"33:50"</t>
         </is>
       </c>
-      <c r="C96" s="4" t="inlineStr">
+      <c r="D96" s="6" t="inlineStr">
         <is>
           <t>But there we go then we get into that opportunity for corrupt politicians to start swaying the votes by gerrymandering and not allowing college students to vote or only having two polling places. Open in the largest urban center of their state. It starts getting scary there. I just think there should be a National Standard, so many voting stations per so many people on</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F96" t="n">
-        <v>95</v>
-      </c>
+      <c r="E96" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F96" s="6" t="n"/>
     </row>
     <row r="97" ht="12.5" customHeight="1">
-      <c r="A97" s="2" t="n">
+      <c r="A97" s="6" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B97" s="4" t="inlineStr">
+      <c r="C97" s="6" t="inlineStr">
         <is>
           <t>"33:50"</t>
         </is>
       </c>
-      <c r="C97" s="4" t="inlineStr">
+      <c r="D97" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Online registration, online. Voting Etc.</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F97" t="n">
-        <v>96</v>
-      </c>
+      <c r="E97" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F97" s="6" t="n"/>
     </row>
     <row r="98" ht="12.5" customHeight="1">
-      <c r="A98" s="2" t="n">
+      <c r="A98" s="6" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B98" s="4" t="inlineStr">
+      <c r="C98" s="6" t="inlineStr">
         <is>
           <t>"34:24"</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>97</v>
-      </c>
+      <c r="D98" s="6" t="n"/>
+      <c r="E98" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F98" s="6" t="n"/>
     </row>
     <row r="99" ht="12.5" customHeight="1">
-      <c r="A99" s="2" t="n">
+      <c r="A99" s="6" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B99" s="4" t="inlineStr">
+      <c r="C99" s="6" t="inlineStr">
         <is>
           <t>"34:24"</t>
         </is>
       </c>
-      <c r="C99" s="4" t="inlineStr">
+      <c r="D99" s="6" t="inlineStr">
         <is>
           <t>I agree. I just believe that once you get a something to work, if you were all Universal, then it would be hard for people to get to the people who was working in the polling, places kind of sway, your vote,</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. It is important to agree on a common system or language.
 2. Once something is working, if everyone was using a universal system, it would be difficult for individuals to influence the voting process in polling places.</t>
         </is>
       </c>
-      <c r="F99" t="n">
-        <v>98</v>
-      </c>
     </row>
     <row r="100" ht="12.5" customHeight="1">
-      <c r="A100" s="2" t="n">
+      <c r="A100" s="6" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" s="6" t="n">
         <v>10148</v>
       </c>
-      <c r="B100" s="4" t="inlineStr">
+      <c r="C100" s="6" t="inlineStr">
         <is>
           <t>"34:45"</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F100" t="n">
-        <v>99</v>
-      </c>
+      <c r="D100" s="6" t="n"/>
+      <c r="E100" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F100" s="6" t="n"/>
     </row>
     <row r="101" ht="12.5" customHeight="1">
-      <c r="A101" s="2" t="n">
+      <c r="A101" s="6" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" s="6" t="n">
         <v>10148</v>
       </c>
-      <c r="B101" s="4" t="inlineStr">
+      <c r="C101" s="6" t="inlineStr">
         <is>
           <t>"34:45"</t>
         </is>
       </c>
-      <c r="C101" s="4" t="inlineStr">
+      <c r="D101" s="6" t="inlineStr">
         <is>
           <t>If there was some sort of national guideline it can still be be left up to the state's on how to actually accomplish that whether they use a different software than another state or they'd use a different platform. But the guideline should be set where this is, you know, however, it should run on a nationwide level, I think.</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The presence of a national guideline for a certain matter is suggested.
 2. States would have the flexibility to determine how to achieve the guideline.
@@ -2781,172 +2883,176 @@
 4. The guideline should ensure that the matter runs on a nationwide level.</t>
         </is>
       </c>
-      <c r="F101" t="n">
-        <v>100</v>
-      </c>
     </row>
     <row r="102" ht="12.5" customHeight="1">
-      <c r="A102" s="2" t="n">
+      <c r="A102" s="6" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" s="6" t="n">
         <v>48601</v>
       </c>
-      <c r="B102" s="4" t="inlineStr">
+      <c r="C102" s="6" t="inlineStr">
         <is>
           <t>"35:10"</t>
         </is>
       </c>
-      <c r="C102" s="4" t="inlineStr">
+      <c r="D102" s="6" t="inlineStr">
         <is>
           <t>I agree.</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F102" t="n">
-        <v>101</v>
-      </c>
+      <c r="E102" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F102" s="6" t="n"/>
     </row>
     <row r="103" ht="12.5" customHeight="1">
-      <c r="A103" s="2" t="n">
+      <c r="A103" s="6" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B103" s="4" t="inlineStr">
+      <c r="C103" s="6" t="inlineStr">
         <is>
           <t>"35:16"</t>
         </is>
       </c>
-      <c r="C103" s="4" t="inlineStr">
+      <c r="D103" s="6" t="inlineStr">
         <is>
           <t>What we witnessed, what happens when there are different voting machines used in different states already, just this last year to two companies. Major companies are suing Fox and other news media for disseminating false information about them. And that was only because there were different companies used. If every machine voting machine was the same. When I grew up, they were manual machines. You went in, and you pull the little lever and it</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. The text discusses the issue of different voting machines being used in different states.
-2. This was highlighted as an issue in the last year, with two major companies involved.
-3. These companies have even taken legal action against news media, such as Fox, for spreading false information.
-4. This problem arose due to the use of different voting machine companies.
-5. The text compares this to the past, when manual voting machines were used and there was less variation between machines.</t>
-        </is>
-      </c>
-      <c r="F103" t="n">
-        <v>102</v>
+      <c r="F103" s="6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1. Different voting machines were used in various states in the last year, leading to two major companies suing Fox and other news media for spreading false information.
+2. This situation occurred due to the use of different voting machine companies.
+3. In the past, manual voting machines were used, where individuals would go in and manually pull a lever to cast their vote.</t>
+        </is>
       </c>
     </row>
     <row r="104" ht="12.5" customHeight="1">
-      <c r="A104" s="2" t="n">
+      <c r="A104" s="6" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B104" s="4" t="inlineStr">
+      <c r="C104" s="6" t="inlineStr">
         <is>
           <t>"35:16"</t>
         </is>
       </c>
-      <c r="C104" s="4" t="inlineStr">
+      <c r="D104" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> registered your vote. I don't know if they were the same across the country, I think.</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F104" t="n">
-        <v>103</v>
-      </c>
+      <c r="E104" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F104" s="6" t="n"/>
     </row>
     <row r="105" ht="12.5" customHeight="1">
-      <c r="A105" s="2" t="n">
+      <c r="A105" s="6" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" s="6" t="n">
         <v>48601</v>
       </c>
-      <c r="B105" s="4" t="inlineStr">
+      <c r="C105" s="6" t="inlineStr">
         <is>
           <t>"35:51"</t>
         </is>
       </c>
-      <c r="C105" s="4" t="inlineStr">
+      <c r="D105" s="6" t="inlineStr">
         <is>
           <t>I think they were too. I wonder.</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F105" t="n">
-        <v>104</v>
-      </c>
+      <c r="E105" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F105" s="6" t="n"/>
     </row>
     <row r="106" ht="12.5" customHeight="1">
-      <c r="A106" s="2" t="n">
+      <c r="A106" s="6" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" s="6" t="n">
         <v>48601</v>
       </c>
-      <c r="B106" s="4" t="inlineStr">
+      <c r="C106" s="6" t="inlineStr">
         <is>
           <t>"35:51"</t>
         </is>
       </c>
-      <c r="C106" s="4" t="inlineStr">
+      <c r="D106" s="6" t="inlineStr">
         <is>
           <t>I don't know what I wonder if I guess I lost my train of thought.</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F106" t="n">
-        <v>105</v>
-      </c>
+      <c r="E106" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F106" s="6" t="n"/>
     </row>
     <row r="107" ht="12.5" customHeight="1">
-      <c r="A107" s="2" t="n">
+      <c r="A107" s="6" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" s="6" t="n">
         <v>48601</v>
       </c>
-      <c r="B107" s="4" t="inlineStr">
+      <c r="C107" s="6" t="inlineStr">
         <is>
           <t>"35:51"</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F107" t="n">
-        <v>106</v>
-      </c>
+      <c r="D107" s="6" t="n"/>
+      <c r="E107" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F107" s="6" t="n"/>
     </row>
     <row r="108" ht="12.5" customHeight="1">
-      <c r="A108" s="2" t="n">
+      <c r="A108" s="6" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B108" s="4" t="inlineStr">
+      <c r="C108" s="6" t="inlineStr">
         <is>
           <t>"36:04"</t>
         </is>
       </c>
-      <c r="C108" s="4" t="inlineStr">
+      <c r="D108" s="6" t="inlineStr">
         <is>
           <t>And a lot of this could be fixed, like I said, I think we're in many ways just discussing things of the whole system is just broken. If we could go to a more modern type of thing than majority of these problems just go away. The real challenge is we have a pretty archaic system and because of that there's lots of ways to manipulate it and so they put in these laws to try to not have people manipulated</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The current system has many issues that could be improved.
 2. A more modern system would solve many of these problems.
@@ -2954,225 +3060,232 @@
 4. Laws have been put in place to prevent people from being manipulated in the system.</t>
         </is>
       </c>
-      <c r="F108" t="n">
-        <v>107</v>
-      </c>
     </row>
     <row r="109" ht="12.5" customHeight="1">
-      <c r="A109" s="2" t="n">
+      <c r="A109" s="6" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B109" s="4" t="inlineStr">
+      <c r="C109" s="6" t="inlineStr">
         <is>
           <t>"36:04"</t>
         </is>
       </c>
-      <c r="C109" s="4" t="inlineStr">
+      <c r="D109" s="6" t="inlineStr">
         <is>
           <t>or to allow continued to manipulate it sometimes it feels like but there's just I think the biggest challenges we are stuck on an archaic system.</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F109" t="n">
-        <v>108</v>
-      </c>
+      <c r="E109" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F109" s="6" t="n"/>
     </row>
     <row r="110" ht="12.5" customHeight="1">
-      <c r="A110" s="2" t="n">
+      <c r="A110" s="6" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B110" s="4" t="inlineStr">
+      <c r="C110" s="6" t="inlineStr">
         <is>
           <t>"36:45"</t>
         </is>
       </c>
-      <c r="C110" s="4" t="inlineStr">
+      <c r="D110" s="6" t="inlineStr">
         <is>
           <t>Don't think I was saying, we should go back to those machines where we pull the levers. I'm all for electronics. I'm not a Luddite.</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F110" t="n">
-        <v>109</v>
-      </c>
+      <c r="E110" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F110" s="6" t="n"/>
     </row>
     <row r="111" ht="12.5" customHeight="1">
-      <c r="A111" s="2" t="n">
+      <c r="A111" s="6" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" s="6" t="n">
         <v>48601</v>
       </c>
-      <c r="B111" s="4" t="inlineStr">
+      <c r="C111" s="6" t="inlineStr">
         <is>
           <t>"37:19"</t>
         </is>
       </c>
-      <c r="C111" s="4" t="inlineStr">
+      <c r="D111" s="6" t="inlineStr">
         <is>
           <t>I think they should be allowed to vote after they serve their sentences.</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The right to vote is being discussed.
 2. The focus is on people who have been convicted of a crime.
 3. The argument is for allowing these individuals to vote after they have served their sentences.</t>
         </is>
       </c>
-      <c r="F111" t="n">
-        <v>110</v>
-      </c>
     </row>
     <row r="112" ht="12.5" customHeight="1">
-      <c r="A112" s="2" t="n">
+      <c r="A112" s="6" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B112" s="4" t="inlineStr">
+      <c r="C112" s="6" t="inlineStr">
         <is>
           <t>"37:26"</t>
         </is>
       </c>
-      <c r="C112" s="4" t="inlineStr">
+      <c r="D112" s="6" t="inlineStr">
         <is>
           <t>You've paid your debt to society, you get to vote. I don't know if anyone knows what happened in. Florida, this past year with our governor, sending police to arrest some felons who had been given their voting rights back.</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F112" t="n">
-        <v>111</v>
-      </c>
+      <c r="E112" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F112" s="6" t="n"/>
     </row>
     <row r="113" ht="12.5" customHeight="1">
-      <c r="A113" s="2" t="n">
+      <c r="A113" s="6" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B113" s="4" t="inlineStr">
+      <c r="C113" s="6" t="inlineStr">
         <is>
           <t>"37:26"</t>
         </is>
       </c>
-      <c r="C113" s="4" t="inlineStr">
+      <c r="D113" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> They were arrested and this is all an attempt to scare felons from trying to vote every. One of those cases was dismissed by judges saying this is a political ploy to try to scare felons from voting. The only people in Florida that actually were convicted of voting where some real right-wing, people in The Villages, interestingly enough</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. Multiple people were arrested in Florida, allegedly for attempting to vote despite being felons.
 2. One of the cases was dismissed by judges, who viewed it as a political ploy to discourage felons from voting.
 3. The only people in Florida convicted of voting were right-wing individuals from The Villages.</t>
         </is>
       </c>
-      <c r="F113" t="n">
-        <v>112</v>
-      </c>
     </row>
     <row r="114" ht="12.5" customHeight="1">
-      <c r="A114" s="2" t="n">
+      <c r="A114" s="6" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B114" s="4" t="inlineStr">
+      <c r="C114" s="6" t="inlineStr">
         <is>
           <t>"38:10"</t>
         </is>
       </c>
-      <c r="C114" s="4" t="inlineStr">
+      <c r="D114" s="6" t="inlineStr">
         <is>
           <t>Yeah, this is a really easy one. I think it's, if you have paid your right to society, you should be able to vote. And, and just as Jay was saying, boy, there's some, if you're not going to do that, there's some real scary manipulations that can happen to where you can manipulate the public to me. I just want to know, what is the real data sets saying what is the who has actually been elected? Not playing these games?</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. Paying your right to society is a prerequisite to being able to vote.
 2. If this responsibility is not met, there is a risk of scary manipulations that can affect the public.
 3. The speaker desires to know the real data sets and who has been elected, without any manipulations or games.</t>
         </is>
       </c>
-      <c r="F114" t="n">
-        <v>113</v>
-      </c>
     </row>
     <row r="115" ht="12.5" customHeight="1">
-      <c r="A115" s="2" t="n">
+      <c r="A115" s="6" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B115" s="4" t="inlineStr">
+      <c r="C115" s="6" t="inlineStr">
         <is>
           <t>"38:10"</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F115" t="n">
-        <v>114</v>
-      </c>
+      <c r="D115" s="6" t="n"/>
+      <c r="E115" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F115" s="6" t="n"/>
     </row>
     <row r="116" ht="12.5" customHeight="1">
-      <c r="A116" s="2" t="n">
+      <c r="A116" s="6" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B116" s="4" t="inlineStr">
+      <c r="C116" s="6" t="inlineStr">
         <is>
           <t>"38:40"</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F116" t="n">
-        <v>115</v>
-      </c>
+      <c r="D116" s="6" t="n"/>
+      <c r="E116" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F116" s="6" t="n"/>
     </row>
     <row r="117" ht="12.5" customHeight="1">
-      <c r="A117" s="2" t="n">
+      <c r="A117" s="6" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B117" s="4" t="inlineStr">
+      <c r="C117" s="6" t="inlineStr">
         <is>
           <t>"38:40"</t>
         </is>
       </c>
-      <c r="C117" s="4" t="inlineStr">
+      <c r="D117" s="6" t="inlineStr">
         <is>
           <t>I just don't understand what would be the problem and allowing people who have been incarcerated. But out to vote, I don't understand where the problem comes from but I do understand the reasoning because mostly minorities are locked up. So naturally that would stop some of the voting</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text discusses the issue of allowing people who have been incarcerated to vote.
 2. The author expresses confusion about where the problem with allowing incarcerated people to vote comes from.
@@ -3180,648 +3293,672 @@
 4. The author concludes that this would naturally suppress some of the voting.</t>
         </is>
       </c>
-      <c r="F117" t="n">
-        <v>116</v>
-      </c>
     </row>
     <row r="118" ht="12.5" customHeight="1">
-      <c r="A118" s="2" t="n">
+      <c r="A118" s="6" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" s="6" t="n">
         <v>10148</v>
       </c>
-      <c r="B118" s="4" t="inlineStr">
+      <c r="C118" s="6" t="inlineStr">
         <is>
           <t>"39:07"</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F118" t="n">
-        <v>117</v>
-      </c>
+      <c r="D118" s="6" t="n"/>
+      <c r="E118" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F118" s="6" t="n"/>
     </row>
     <row r="119" ht="12.5" customHeight="1">
-      <c r="A119" s="2" t="n">
+      <c r="A119" s="6" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" s="6" t="n">
         <v>10148</v>
       </c>
-      <c r="B119" s="4" t="inlineStr">
+      <c r="C119" s="6" t="inlineStr">
         <is>
           <t>"39:07"</t>
         </is>
       </c>
-      <c r="C119" s="4" t="inlineStr">
+      <c r="D119" s="6" t="inlineStr">
         <is>
           <t>I agree. I feel like if you've completed your sentence and you're released back out into society or expected to be a productive member of society, you're expected to get a job. You're expected to go back to living your life, and you should be able to have some sort of say in the government and and the policies that are happening around you.</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person believes that completing a sentence should allow someone to return to society.
 2. They are expected to get a job and live a productive life.
 3. The person thinks that those who have completed their sentence should be able to have a say in the government and its policies.</t>
         </is>
       </c>
-      <c r="F119" t="n">
-        <v>118</v>
-      </c>
     </row>
     <row r="120" ht="12.5" customHeight="1">
-      <c r="A120" s="2" t="n">
+      <c r="A120" s="6" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" s="6" t="n">
         <v>48646</v>
       </c>
-      <c r="B120" s="4" t="inlineStr">
+      <c r="C120" s="6" t="inlineStr">
         <is>
           <t>"39:32"</t>
         </is>
       </c>
-      <c r="C120" s="4" t="inlineStr">
+      <c r="D120" s="6" t="inlineStr">
         <is>
           <t>Yeah, I don't understand why this is even an issue that you still live here. You're still a citizen. You did your time. Of course, you should still be allowed to vote.</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F120" t="n">
-        <v>119</v>
-      </c>
+      <c r="E120" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F120" s="6" t="n"/>
     </row>
     <row r="121" ht="12.5" customHeight="1">
-      <c r="A121" s="2" t="n">
+      <c r="A121" s="6" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" s="6" t="n">
         <v>48776</v>
       </c>
-      <c r="B121" s="4" t="inlineStr">
+      <c r="C121" s="6" t="inlineStr">
         <is>
           <t>"39:44"</t>
         </is>
       </c>
-      <c r="C121" s="4" t="inlineStr">
+      <c r="D121" s="6" t="inlineStr">
         <is>
           <t>I know I'm totally against what everyone else is saying, but I think this country the lawlessness that's going on these days is so much that I think in a way allowing people that committed, a serious crime to be able to vote even after they paid their time. Maybe that's helping a fuel people to commit crimes because there's there's no</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
-        <v>120</v>
-      </c>
+      <c r="E121" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F121" s="6" t="n"/>
     </row>
     <row r="122" ht="12.5" customHeight="1">
-      <c r="A122" s="2" t="n">
+      <c r="A122" s="6" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" s="6" t="n">
         <v>48776</v>
       </c>
-      <c r="B122" s="4" t="inlineStr">
+      <c r="C122" s="6" t="inlineStr">
         <is>
           <t>"39:44"</t>
         </is>
       </c>
-      <c r="C122" s="4" t="inlineStr">
+      <c r="D122" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> No answer, no, no paying their, how can I say it the punishment. Maybe isn't enough. So that's why people are committing crimes. So whatever it takes to lower the crime rate, maybe make it so they can't even vote.</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text suggests that there is a problem with people not being sufficiently punished for their crimes.
 2. It is implied that this lack of sufficient punishment is leading to an increase in crime rates.
 3. The text suggests a possible solution to lower the crime rate could be to implement stricter voting restrictions for criminals.</t>
         </is>
       </c>
-      <c r="F122" t="n">
-        <v>121</v>
-      </c>
     </row>
     <row r="123" ht="12.5" customHeight="1">
-      <c r="A123" s="2" t="n">
+      <c r="A123" s="6" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B123" s="4" t="inlineStr">
+      <c r="C123" s="6" t="inlineStr">
         <is>
           <t>"40:29"</t>
         </is>
       </c>
-      <c r="C123" s="4" t="inlineStr">
+      <c r="D123" s="6" t="inlineStr">
         <is>
           <t>So Tim you're saying that one mistake in your life and that's it. You have no say about your role in society ever again, let's keep in mind that there are people who are in jail now, for felony crimes for having sold marijuana, which is now legal, and being sold in States. And you're saying that not only should they have spent 30 years in jail, but now that they're out, they shouldn't have the right to vote. So I'm sorry as far as I'm concerned.</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F123" t="n">
-        <v>122</v>
-      </c>
+      <c r="E123" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F123" s="6" t="n"/>
     </row>
     <row r="124" ht="12.5" customHeight="1">
-      <c r="A124" s="2" t="n">
+      <c r="A124" s="6" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B124" s="4" t="inlineStr">
+      <c r="C124" s="6" t="inlineStr">
         <is>
           <t>"40:29"</t>
         </is>
       </c>
-      <c r="C124" s="4" t="inlineStr">
+      <c r="D124" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> The goal of Rehabilitation, the goal of prison should be to rehabilitate people and make them want to vote to be.</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The primary goal of Rehabilitation is to rehabilitate people.
 2. The goal of prison should be to make incarcerated individuals want to participate in society again.
 3. Participation in society includes voting.</t>
         </is>
       </c>
-      <c r="F124" t="n">
-        <v>123</v>
-      </c>
     </row>
     <row r="125" ht="12.5" customHeight="1">
-      <c r="A125" s="2" t="n">
+      <c r="A125" s="6" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B125" s="4" t="inlineStr">
+      <c r="C125" s="6" t="inlineStr">
         <is>
           <t>"40:29"</t>
         </is>
       </c>
-      <c r="C125" s="4" t="inlineStr">
+      <c r="D125" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> As Christina, B-side citizens, contributing citizens.</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F125" t="n">
-        <v>124</v>
-      </c>
+      <c r="E125" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F125" s="6" t="n"/>
     </row>
     <row r="126" ht="12.5" customHeight="1">
-      <c r="A126" s="2" t="n">
+      <c r="A126" s="6" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" s="6" t="n">
         <v>48627</v>
       </c>
-      <c r="B126" s="4" t="inlineStr">
+      <c r="C126" s="6" t="inlineStr">
         <is>
           <t>"41:11"</t>
         </is>
       </c>
-      <c r="C126" s="4" t="inlineStr">
+      <c r="D126" s="6" t="inlineStr">
         <is>
           <t>Oh well I don't really want to get off topic but I do feel this is related which is I feel like I'm in my head throughout all these conversations. I'm breaking it down into rules that are designed to keep people out of voting and rules that invite people into voting. And if you look at voter turnout in America, we have a problem with voter turnout and getting people to vote. We need to get more voices. We need to have more people voting. I think it would benefit all of</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F126" t="n">
-        <v>125</v>
-      </c>
+      <c r="E126" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F126" s="6" t="n"/>
     </row>
     <row r="127" ht="12.5" customHeight="1">
-      <c r="A127" s="2" t="n">
+      <c r="A127" s="6" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" s="6" t="n">
         <v>10148</v>
       </c>
-      <c r="B127" s="4" t="inlineStr">
+      <c r="C127" s="6" t="inlineStr">
         <is>
           <t>"41:39"</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F127" t="n">
-        <v>126</v>
-      </c>
+      <c r="D127" s="6" t="n"/>
+      <c r="E127" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F127" s="6" t="n"/>
     </row>
     <row r="128" ht="12.5" customHeight="1">
-      <c r="A128" s="2" t="n">
+      <c r="A128" s="6" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" s="6" t="n">
         <v>10148</v>
       </c>
-      <c r="B128" s="4" t="inlineStr">
+      <c r="C128" s="6" t="inlineStr">
         <is>
           <t>"41:39"</t>
         </is>
       </c>
-      <c r="C128" s="4" t="inlineStr">
+      <c r="D128" s="6" t="inlineStr">
         <is>
           <t>I agree, Christina. I just happen to be of the opinion that all of these things are designed to keep as many people from voting as possible, and it's intentionally designed that way and to your point in when fortunately, I happen to feel like, if someone who is about to commit, a crime is willing to put their life, their freedom, their family, their safety at risk to go to jail. The idea of not being able to vote in the future is</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F128" t="n">
-        <v>127</v>
-      </c>
+      <c r="E128" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F128" s="6" t="n"/>
     </row>
     <row r="129" ht="12.5" customHeight="1">
-      <c r="A129" s="2" t="n">
+      <c r="A129" s="6" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" s="6" t="n">
         <v>10148</v>
       </c>
-      <c r="B129" s="4" t="inlineStr">
+      <c r="C129" s="6" t="inlineStr">
         <is>
           <t>"41:39"</t>
         </is>
       </c>
-      <c r="C129" s="4" t="inlineStr">
+      <c r="D129" s="6" t="inlineStr">
         <is>
           <t>Not going to sway them one way or another. Keep them prevent them from committing the crime.</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F129" t="n">
-        <v>128</v>
-      </c>
+      <c r="E129" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F129" s="6" t="n"/>
     </row>
     <row r="130" ht="12.5" customHeight="1">
-      <c r="A130" s="2" t="n">
+      <c r="A130" s="6" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B130" s="4" t="inlineStr">
+      <c r="C130" s="6" t="inlineStr">
         <is>
           <t>"42:16"</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F130" t="n">
-        <v>129</v>
-      </c>
+      <c r="D130" s="6" t="n"/>
+      <c r="E130" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F130" s="6" t="n"/>
     </row>
     <row r="131" ht="12.5" customHeight="1">
-      <c r="A131" s="2" t="n">
+      <c r="A131" s="6" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B131" s="4" t="inlineStr">
+      <c r="C131" s="6" t="inlineStr">
         <is>
           <t>"42:16"</t>
         </is>
       </c>
-      <c r="C131" s="4" t="inlineStr">
+      <c r="D131" s="6" t="inlineStr">
         <is>
           <t>Oh, that's going to be the last thing on their mind is they're not going to be able to vote because they committed a crime, but I do believe that it be an incentive for our young men and women who have spent time in prison.</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text discusses the idea of allowing people who have committed crimes to vote.
-2. The speaker notes that voting rights are probably not a top concern for people in prison.
+2. The speaker notes that voting rights are probably not a priority for incarcerated individuals.
 3. However, the speaker believes that restoring voting rights could serve as an incentive for young men and women who have been in prison.</t>
         </is>
       </c>
-      <c r="F131" t="n">
-        <v>130</v>
-      </c>
     </row>
     <row r="132" ht="12.5" customHeight="1">
-      <c r="A132" s="2" t="n">
+      <c r="A132" s="6" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B132" s="4" t="inlineStr">
+      <c r="C132" s="6" t="inlineStr">
         <is>
           <t>"42:16"</t>
         </is>
       </c>
-      <c r="C132" s="4" t="inlineStr">
+      <c r="D132" s="6" t="inlineStr">
         <is>
           <t>They be able to vote once again and be like everybody else.</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F132" t="n">
-        <v>131</v>
-      </c>
+      <c r="E132" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F132" s="6" t="n"/>
     </row>
     <row r="133" ht="12.5" customHeight="1">
-      <c r="A133" s="2" t="n">
+      <c r="A133" s="6" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" s="6" t="n">
         <v>48776</v>
       </c>
-      <c r="B133" s="4" t="inlineStr">
+      <c r="C133" s="6" t="inlineStr">
         <is>
           <t>"42:38"</t>
         </is>
       </c>
-      <c r="C133" s="4" t="inlineStr">
+      <c r="D133" s="6" t="inlineStr">
         <is>
           <t>I agree with what you're all saying to, but I'm just saying the crime in the United States is so bad that it were sometimes I think we're almost like compared to 50 years ago. We've gone downhill. I think we're almost getting to a point with the homelessness and so forth. It's almost like we're in a third were becoming a third world country. So and I agree committing a crime that the fact that they're going to lose their voting rights for the rest of</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F133" t="n">
-        <v>132</v>
-      </c>
+      <c r="E133" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F133" s="6" t="n"/>
     </row>
     <row r="134" ht="12.5" customHeight="1">
-      <c r="A134" s="2" t="n">
+      <c r="A134" s="6" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" s="6" t="n">
         <v>48776</v>
       </c>
-      <c r="B134" s="4" t="inlineStr">
+      <c r="C134" s="6" t="inlineStr">
         <is>
           <t>"42:38"</t>
         </is>
       </c>
-      <c r="C134" s="4" t="inlineStr">
+      <c r="D134" s="6" t="inlineStr">
         <is>
           <t>their life is the is not going to be on their mind. I definitely agree with that but whatever it takes to decrease the amount of crime in this country.</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F134" t="n">
-        <v>133</v>
-      </c>
+      <c r="E134" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F134" s="6" t="n"/>
     </row>
     <row r="135" ht="12.5" customHeight="1">
-      <c r="A135" s="2" t="n">
+      <c r="A135" s="6" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B135" s="4" t="inlineStr">
+      <c r="C135" s="6" t="inlineStr">
         <is>
           <t>"43:19"</t>
         </is>
       </c>
-      <c r="C135" s="4" t="inlineStr">
+      <c r="D135" s="6" t="inlineStr">
         <is>
           <t>You know the comment earlier that was about. We have low voter turnout. I think what may scare people out there is. I don't know if anyone has any idea what the Real Results would be if there was a hundred percent voting. In fact, there we have probably no idea what the results would turn out to be but as far as for crime and different things, I think like the</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F135" t="n">
-        <v>134</v>
-      </c>
+      <c r="E135" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F135" s="6" t="n"/>
     </row>
     <row r="136" ht="12.5" customHeight="1">
-      <c r="A136" s="2" t="n">
+      <c r="A136" s="6" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B136" s="4" t="inlineStr">
+      <c r="C136" s="6" t="inlineStr">
         <is>
           <t>"43:19"</t>
         </is>
       </c>
-      <c r="C136" s="4" t="inlineStr">
+      <c r="D136" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Last common on they're actually kind of makes me look mad where it says you know, they have they have been released but they haven't paid enough of their right to society and I just think well then you didn't do the the punishment, right? I guess.</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F136" t="n">
-        <v>135</v>
-      </c>
+      <c r="E136" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F136" s="6" t="n"/>
     </row>
     <row r="137" ht="12.5" customHeight="1">
-      <c r="A137" s="2" t="n">
+      <c r="A137" s="6" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" s="6" t="n">
         <v>10148</v>
       </c>
-      <c r="B137" s="4" t="inlineStr">
+      <c r="C137" s="6" t="inlineStr">
         <is>
           <t>"44:04"</t>
         </is>
       </c>
-      <c r="C137" s="4" t="inlineStr">
+      <c r="D137" s="6" t="inlineStr">
         <is>
           <t>Sorry, I cut you off Roy, but to your point him also, I just happened to feel like maybe it would help restoring some of these rights to convicted felons who paid their debt. Maybe it would help deter them from committing more crimes in the future. They feel like productive members of society. They get re-acclimated to society, and they feel like they have a say, they feel like they have a place in that Society, maybe that could help them determine tutor them.</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F137" t="n">
-        <v>136</v>
-      </c>
+      <c r="E137" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F137" s="6" t="n"/>
     </row>
     <row r="138" ht="12.5" customHeight="1">
-      <c r="A138" s="2" t="n">
+      <c r="A138" s="6" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" s="6" t="n">
         <v>48601</v>
       </c>
-      <c r="B138" s="4" t="inlineStr">
+      <c r="C138" s="6" t="inlineStr">
         <is>
           <t>"45:58"</t>
         </is>
       </c>
-      <c r="C138" s="4" t="inlineStr">
+      <c r="D138" s="6" t="inlineStr">
         <is>
           <t>I think observers are a problem. I think voting online probably would solve all these problems.</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F138" t="n">
-        <v>137</v>
-      </c>
+      <c r="E138" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F138" s="6" t="n"/>
     </row>
     <row r="139" ht="12.5" customHeight="1">
-      <c r="A139" s="2" t="n">
+      <c r="A139" s="6" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" s="6" t="n">
         <v>48601</v>
       </c>
-      <c r="B139" s="4" t="inlineStr">
+      <c r="C139" s="6" t="inlineStr">
         <is>
           <t>"45:58"</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F139" t="n">
-        <v>138</v>
-      </c>
+      <c r="D139" s="6" t="n"/>
+      <c r="E139" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F139" s="6" t="n"/>
     </row>
     <row r="140" ht="12.5" customHeight="1">
-      <c r="A140" s="2" t="n">
+      <c r="A140" s="6" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B140" s="4" t="inlineStr">
+      <c r="C140" s="6" t="inlineStr">
         <is>
           <t>"46:13"</t>
         </is>
       </c>
-      <c r="C140" s="4" t="inlineStr">
+      <c r="D140" s="6" t="inlineStr">
         <is>
           <t>I agree, Eleanor. I like the idea of establishing greater penalties and different things for misleading or deceiving or intimidating, like anything. That's that's getting away from what the truth is, or to mess with the politics and different things, I think. Absolutely. I'm in favor of of having greater penalties on that site. I do worry about having the representative are the people observing different things because</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F140" t="n">
-        <v>139</v>
-      </c>
+      <c r="E140" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F140" s="6" t="n"/>
     </row>
     <row r="141" ht="12.5" customHeight="1">
-      <c r="A141" s="2" t="n">
+      <c r="A141" s="6" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B141" s="4" t="inlineStr">
+      <c r="C141" s="6" t="inlineStr">
         <is>
           <t>"46:13"</t>
         </is>
       </c>
-      <c r="C141" s="4" t="inlineStr">
+      <c r="D141" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> cuz there can be intimidation, that's happening there. Like this should be completely safe space for people to go and cast their vote.</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. There can be intimidation at a place where people go to cast their vote.
 2. This space should be completely safe for people to go and vote.</t>
         </is>
       </c>
-      <c r="F141" t="n">
-        <v>140</v>
-      </c>
     </row>
     <row r="142" ht="12.5" customHeight="1">
-      <c r="A142" s="2" t="n">
+      <c r="A142" s="6" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B142" s="4" t="inlineStr">
+      <c r="C142" s="6" t="inlineStr">
         <is>
           <t>"46:52"</t>
         </is>
       </c>
-      <c r="C142" s="4" t="inlineStr">
+      <c r="D142" s="6" t="inlineStr">
         <is>
           <t>I agree with that. Really. I think it should be more criminal penalties for people who mislead you, why they're voting. I really don't think that is the way to go and I don't believe something else. I was just looking at</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F142" t="n">
-        <v>141</v>
-      </c>
+      <c r="E142" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F142" s="6" t="n"/>
     </row>
     <row r="143" ht="12.5" customHeight="1">
-      <c r="A143" s="2" t="n">
+      <c r="A143" s="6" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B143" s="4" t="inlineStr">
+      <c r="C143" s="6" t="inlineStr">
         <is>
           <t>"46:52"</t>
         </is>
       </c>
-      <c r="C143" s="4" t="inlineStr">
+      <c r="D143" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> That the people who are voting, I'm like, you, they need room. They need space. They need to feel like nothing is going to happen to them because intimidation can be</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. Voting requires people to have space and feel safe.
 2. Intimidation can negatively impact the voting process.</t>
         </is>
       </c>
-      <c r="F143" t="n">
-        <v>142</v>
-      </c>
     </row>
     <row r="144" ht="12.5" customHeight="1">
-      <c r="A144" s="2" t="n">
+      <c r="A144" s="6" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B144" s="4" t="inlineStr">
+      <c r="C144" s="6" t="inlineStr">
         <is>
           <t>"47:22"</t>
         </is>
       </c>
-      <c r="C144" s="4" t="inlineStr">
+      <c r="D144" s="6" t="inlineStr">
         <is>
           <t>Yeah, I concur harsh penalties for intimidation. These people showing up with machine guns, in pick-up truck sitting outside of mail-in ballot locations last year or two years ago. I mean, if that's not intimidation, I don't know what it is and as far as voter interference, there have actually been Robo cool, Robo, calls that went out telling people to vote on the</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The author agrees with harsh penalties for voter intimidation.
 2. An example of intimidation is people arriving with machine guns, sitting outside mail-in ballot locations.
@@ -3829,30 +3966,30 @@
 4. There have been instances of voter interference through Robo calls, instructing people to vote on the wrong day.</t>
         </is>
       </c>
-      <c r="F144" t="n">
-        <v>143</v>
-      </c>
     </row>
     <row r="145" ht="12.5" customHeight="1">
-      <c r="A145" s="2" t="n">
+      <c r="A145" s="6" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B145" s="4" t="inlineStr">
+      <c r="C145" s="6" t="inlineStr">
         <is>
           <t>"47:22"</t>
         </is>
       </c>
-      <c r="C145" s="4" t="inlineStr">
+      <c r="D145" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> The wrong day and they went out specifically to communities of, you know, minorities that they did not want to vote, telling people to vote on the wrong voting day. That's disgraceful.</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. A wrong day was given for voting.
 2. This information was spread specifically to certain minority communities.
@@ -3860,30 +3997,30 @@
 4. This action is considered disgraceful.</t>
         </is>
       </c>
-      <c r="F145" t="n">
-        <v>144</v>
-      </c>
     </row>
     <row r="146" ht="12.5" customHeight="1">
-      <c r="A146" s="2" t="n">
+      <c r="A146" s="6" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" s="6" t="n">
         <v>48646</v>
       </c>
-      <c r="B146" s="4" t="inlineStr">
+      <c r="C146" s="6" t="inlineStr">
         <is>
           <t>"48:05"</t>
         </is>
       </c>
-      <c r="C146" s="4" t="inlineStr">
+      <c r="D146" s="6" t="inlineStr">
         <is>
           <t>Yeah, there really needs to be harsher penalties for this because the last time we went to vote in the presidential election, it was a nightmare. In fact, I almost left they had people sitting outside that were berating people as they went in. If there was any indication of how they were going to vote and then inside they were hovering right over your shoulder. It was awful.</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text discusses the need for harsher penalties in relation to voting.
 2. The author had a negative experience when they went to vote in the presidential election.
@@ -3892,76 +4029,78 @@
 5. The author describes the experience as awful and overwhelming.</t>
         </is>
       </c>
-      <c r="F146" t="n">
-        <v>145</v>
-      </c>
     </row>
     <row r="147" ht="12.5" customHeight="1">
-      <c r="A147" s="2" t="n">
+      <c r="A147" s="6" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B147" s="4" t="inlineStr">
+      <c r="C147" s="6" t="inlineStr">
         <is>
           <t>"48:32"</t>
         </is>
       </c>
-      <c r="C147" s="4" t="inlineStr">
+      <c r="D147" s="6" t="inlineStr">
         <is>
           <t>I think it's crazy like even if your candidate like if they aren't going to be the voice of the people and everything. Sorry suck it up. Go with B we need to unify as a nation and of course there's different ways of accomplishing things. I think there's far more that we have in common and want to make this nation great. Then then just a candidate can change.</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F147" t="n">
-        <v>146</v>
-      </c>
+      <c r="E147" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F147" s="6" t="n"/>
     </row>
     <row r="148" ht="12.5" customHeight="1">
-      <c r="A148" s="2" t="n">
+      <c r="A148" s="6" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B148" s="4" t="inlineStr">
+      <c r="C148" s="6" t="inlineStr">
         <is>
           <t>"48:58"</t>
         </is>
       </c>
-      <c r="C148" s="4" t="inlineStr">
+      <c r="D148" s="6" t="inlineStr">
         <is>
           <t>All my polling locations have been incredibly secure as far as people intimidating other people, but I live in an over 55 community and we vote in our community center and it's very well protected, but my whole life, I voted in various places. I lived in New York City. I was never intimidated. I never had people looking over my shoulder. So wherever that happened, that's just too stressful. I think it was. You Haley, that just said that that I cannot</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F148" t="n">
-        <v>147</v>
-      </c>
+      <c r="E148" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F148" s="6" t="n"/>
     </row>
     <row r="149" ht="12.5" customHeight="1">
-      <c r="A149" s="2" t="n">
+      <c r="A149" s="6" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B149" s="4" t="inlineStr">
+      <c r="C149" s="6" t="inlineStr">
         <is>
           <t>"48:58"</t>
         </is>
       </c>
-      <c r="C149" s="4" t="inlineStr">
+      <c r="D149" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Of that that was allowed, which is why we definitely should. Now not allow people to challenge people standing there. If you have, if you're on the register and you haven't voted you, get</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text discusses the importance of not allowing people to challenge others who are standing in line to vote.
 2. It is emphasized that if someone is registered to vote, they should not be prevented from doing so.
@@ -3969,780 +4108,813 @@
 4. The text may be incomplete or disjointed, making the exact argument less clear. However, the overall message is to support and protect the voting rights of eligible individuals.</t>
         </is>
       </c>
-      <c r="F149" t="n">
-        <v>148</v>
-      </c>
     </row>
     <row r="150" ht="12.5" customHeight="1">
-      <c r="A150" s="2" t="n">
+      <c r="A150" s="6" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" s="6" t="n">
         <v>48776</v>
       </c>
-      <c r="B150" s="4" t="inlineStr">
+      <c r="C150" s="6" t="inlineStr">
         <is>
           <t>"49:39"</t>
         </is>
       </c>
-      <c r="C150" s="4" t="inlineStr">
+      <c r="D150" s="6" t="inlineStr">
         <is>
           <t>My experience here in Southern California is such that I never been intimidated. Either going to the polling booths in the local elementary school basically. But lately, the last several years, I've been voting by mail with the covid and so forth, but if there is harassment of any type, yeah, there should be definitely punishments for that because that that gets away from what what the person really wants to vote.</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The speaker has never felt intimidated when voting in Southern California, either at polling booths in local elementary schools or by mail.
 2. The speaker has been voting by mail in recent years due to the COVID-19 pandemic.
-3. The speaker believes that there should be consequences for voter harassment, as it interferes with a person's ability to vote for their preferred candidate.</t>
-        </is>
-      </c>
-      <c r="F150" t="n">
-        <v>149</v>
+3. The speaker believes that there should be consequences for voter harassment, as it undermines the voter's ability to cast their ballot freely.</t>
+        </is>
       </c>
     </row>
     <row r="151" ht="12.5" customHeight="1">
-      <c r="A151" s="2" t="n">
+      <c r="A151" s="6" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" s="6" t="n">
         <v>48776</v>
       </c>
-      <c r="B151" s="4" t="inlineStr">
+      <c r="C151" s="6" t="inlineStr">
         <is>
           <t>"49:39"</t>
         </is>
       </c>
-      <c r="C151" s="4" t="inlineStr">
+      <c r="D151" s="6" t="inlineStr">
         <is>
           <t>Out.</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F151" t="n">
-        <v>150</v>
-      </c>
+      <c r="E151" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F151" s="6" t="n"/>
     </row>
     <row r="152" ht="12.5" customHeight="1">
-      <c r="A152" s="2" t="n">
+      <c r="A152" s="6" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B152" s="4" t="inlineStr">
+      <c r="C152" s="6" t="inlineStr">
         <is>
           <t>"50:11"</t>
         </is>
       </c>
-      <c r="C152" s="4" t="inlineStr">
+      <c r="D152" s="6" t="inlineStr">
         <is>
           <t>I don't know, there's also not supposed to be any electioneering outside of bowling voting places. I if boy, if I had seen that going on I would have called the cops in an instant and tried to have them there. Then again, when they would have showed up, I don't know, but that's totally illegal to be berating people.</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The person expresses uncertainty about whether electioneering is allowed outside of bowling voting places.
 2. They state that if they had witnessed such activity, they would have immediately called the police.
 3. They assert that berating people near a voting location is illegal.</t>
         </is>
       </c>
-      <c r="F152" t="n">
-        <v>151</v>
-      </c>
     </row>
     <row r="153" ht="12.5" customHeight="1">
-      <c r="A153" s="2" t="n">
+      <c r="A153" s="6" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B153" s="4" t="inlineStr">
+      <c r="C153" s="6" t="inlineStr">
         <is>
           <t>"50:32"</t>
         </is>
       </c>
-      <c r="C153" s="4" t="inlineStr">
+      <c r="D153" s="6" t="inlineStr">
         <is>
           <t>I live in Texas and the people you're voting for has so many feet away that they can be but they're there is least 10 different people. They're talking about vote for me here's my card and I'm walking into the voting booth so they're there.</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F153" t="n">
-        <v>152</v>
-      </c>
+      <c r="E153" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F153" s="6" t="n"/>
     </row>
     <row r="154" ht="12.5" customHeight="1">
-      <c r="A154" s="2" t="n">
+      <c r="A154" s="6" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" s="6" t="n">
         <v>10148</v>
       </c>
-      <c r="B154" s="4" t="inlineStr">
+      <c r="C154" s="6" t="inlineStr">
         <is>
           <t>"50:56"</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F154" t="n">
-        <v>153</v>
-      </c>
+      <c r="D154" s="6" t="n"/>
+      <c r="E154" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F154" s="6" t="n"/>
     </row>
     <row r="155" ht="12.5" customHeight="1">
-      <c r="A155" s="2" t="n">
+      <c r="A155" s="6" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" s="6" t="n">
         <v>10148</v>
       </c>
-      <c r="B155" s="4" t="inlineStr">
+      <c r="C155" s="6" t="inlineStr">
         <is>
           <t>"50:56"</t>
         </is>
       </c>
-      <c r="C155" s="4" t="inlineStr">
+      <c r="D155" s="6" t="inlineStr">
         <is>
           <t>Obviously by now you can all assume that I agree with every single one of your points. I my question is, who police is this though?</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F155" t="n">
-        <v>154</v>
-      </c>
+      <c r="E155" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F155" s="6" t="n"/>
     </row>
     <row r="156" ht="12.5" customHeight="1">
-      <c r="A156" s="2" t="n">
+      <c r="A156" s="6" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B156" s="4" t="inlineStr">
+      <c r="C156" s="6" t="inlineStr">
         <is>
           <t>"52:29"</t>
         </is>
       </c>
-      <c r="C156" s="4" t="inlineStr">
+      <c r="D156" s="6" t="inlineStr">
         <is>
           <t>I don't know. One thing all of this seems like it's just, do you want voting to be easier or do you want voting to be harder?</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text presents a question about the desired level of ease in voting.
-2. The question suggests that there are two opposing viewpoints: one favoring easier voting, and the other favoring harder voting.
-3. The text does not provide any arguments or evidence to support either viewpoint.</t>
-        </is>
-      </c>
-      <c r="F156" t="n">
-        <v>155</v>
+2. The question suggests that there are two opposing options: making voting easier or making it harder.
+3. No specific arguments for either side are given.
+4. The question may be prompted by a debate on voting accessibility and security.
+5. The answer to this question could have significant implications for election outcomes and democratic representation.</t>
+        </is>
       </c>
     </row>
     <row r="157" ht="12.5" customHeight="1">
-      <c r="A157" s="2" t="n">
+      <c r="A157" s="6" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B157" s="4" t="inlineStr">
+      <c r="C157" s="6" t="inlineStr">
         <is>
           <t>"52:29"</t>
         </is>
       </c>
-      <c r="C157" s="4" t="inlineStr">
+      <c r="D157" s="6" t="inlineStr">
         <is>
           <t>So there you go. Every one of these topics that we've been asked to discuss there should be regular Congressional funding and we should prohibit</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F157" t="n">
-        <v>156</v>
-      </c>
+      <c r="E157" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F157" s="6" t="n"/>
     </row>
     <row r="158" ht="12.5" customHeight="1">
-      <c r="A158" s="2" t="n">
+      <c r="A158" s="6" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B158" s="4" t="inlineStr">
+      <c r="C158" s="6" t="inlineStr">
         <is>
           <t>"52:29"</t>
         </is>
       </c>
-      <c r="C158" s="4" t="inlineStr">
+      <c r="D158" s="6" t="inlineStr">
         <is>
           <t>Corporate funding of political parties and Pacs.</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F158" t="n">
-        <v>157</v>
-      </c>
+      <c r="E158" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F158" s="6" t="n"/>
     </row>
     <row r="159" ht="12.5" customHeight="1">
-      <c r="A159" s="2" t="n">
+      <c r="A159" s="6" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B159" s="4" t="inlineStr">
+      <c r="C159" s="6" t="inlineStr">
         <is>
           <t>"52:56"</t>
         </is>
       </c>
-      <c r="C159" s="4" t="inlineStr">
+      <c r="D159" s="6" t="inlineStr">
         <is>
           <t>Yeah, I think once again, this is just a whole bunch of adding more complexity to a broken system. I think that's probably that my opinion there. I don't have a huge opinion on because I just think we're this is just probably the wrong way of doing it anyway. That's just my opinion.</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The opinion is that adding more complexity to a broken system is not a good idea.
-2. This is considered to be adding more complexity to a broken system:
-	* More complexity was added.
-	* The system was already broken.
-3. The system is considered to be broken and the additional complexity is not seen as a solution.
-4. There is no strong opinion on this matter, as it is seen as a fundamentally flawed approach.
-5. The opinion is that this is probably the wrong way of doing things.</t>
-        </is>
-      </c>
-      <c r="F159" t="n">
-        <v>158</v>
+2. This is considered to be adding more complexity to a broken system: "this".
+3. The system is considered to be broken.
+4. There is not a strong opinion on this matter.
+5. The opinion is based on the belief that this approach is probably not the right way to address the issue.
+6. The speaker considers this to be the wrong way of doing it.</t>
+        </is>
       </c>
     </row>
     <row r="160" ht="12.5" customHeight="1">
-      <c r="A160" s="2" t="n">
+      <c r="A160" s="6" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" s="6" t="n">
         <v>48646</v>
       </c>
-      <c r="B160" s="4" t="inlineStr">
+      <c r="C160" s="6" t="inlineStr">
         <is>
           <t>"53:18"</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F160" t="n">
-        <v>159</v>
-      </c>
+      <c r="D160" s="6" t="n"/>
+      <c r="E160" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F160" s="6" t="n"/>
     </row>
     <row r="161" ht="12.5" customHeight="1">
-      <c r="A161" s="2" t="n">
+      <c r="A161" s="6" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" s="6" t="n">
         <v>48646</v>
       </c>
-      <c r="B161" s="4" t="inlineStr">
+      <c r="C161" s="6" t="inlineStr">
         <is>
           <t>"53:18"</t>
         </is>
       </c>
-      <c r="C161" s="4" t="inlineStr">
+      <c r="D161" s="6" t="inlineStr">
         <is>
           <t>yeah, this entire thing reads is something that should have already been in place and been planned for</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> I can't summarize the text since there is no text provided, but here is an example of how the numbered list would look:
 1. This issue should have been planned for.
 2. Adequate preparations should have been made.</t>
         </is>
       </c>
-      <c r="F161" t="n">
-        <v>160</v>
-      </c>
     </row>
     <row r="162" ht="12.5" customHeight="1">
-      <c r="A162" s="2" t="n">
+      <c r="A162" s="6" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B162" s="4" t="inlineStr">
+      <c r="C162" s="6" t="inlineStr">
         <is>
           <t>"53:29"</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F162" t="n">
-        <v>161</v>
-      </c>
+      <c r="D162" s="6" t="n"/>
+      <c r="E162" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F162" s="6" t="n"/>
     </row>
     <row r="163" ht="12.5" customHeight="1">
-      <c r="A163" s="2" t="n">
+      <c r="A163" s="6" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B163" s="4" t="inlineStr">
+      <c r="C163" s="6" t="inlineStr">
         <is>
           <t>"53:29"</t>
         </is>
       </c>
-      <c r="C163" s="4" t="inlineStr">
+      <c r="D163" s="6" t="inlineStr">
         <is>
           <t>It should already be Congressional funding to the states. So, I'm I don't know what the difference would be, you know, I'm like out its out, almost all the same nothingness.</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F163" t="n">
-        <v>162</v>
-      </c>
+      <c r="E163" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F163" s="6" t="n"/>
     </row>
     <row r="164" ht="12.5" customHeight="1">
-      <c r="A164" s="2" t="n">
+      <c r="A164" s="6" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B164" s="4" t="inlineStr">
+      <c r="C164" s="6" t="inlineStr">
         <is>
           <t>"53:50"</t>
         </is>
       </c>
-      <c r="C164" s="4" t="inlineStr">
+      <c r="D164" s="6" t="inlineStr">
         <is>
           <t>To me, it seems like a no-brainer. All the pros listed here. Yeah, Chief electoral officer of the state nonpartisan.</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F164" t="n">
-        <v>163</v>
-      </c>
+      <c r="E164" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F164" s="6" t="n"/>
     </row>
     <row r="165" ht="12.5" customHeight="1">
-      <c r="A165" s="2" t="n">
+      <c r="A165" s="6" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B165" s="4" t="inlineStr">
+      <c r="C165" s="6" t="inlineStr">
         <is>
           <t>"55:53"</t>
         </is>
       </c>
-      <c r="C165" s="4" t="inlineStr">
+      <c r="D165" s="6" t="inlineStr">
         <is>
           <t>Interesting. It seems like we're all thinking this similar things.</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F165" t="n">
-        <v>164</v>
-      </c>
+      <c r="E165" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F165" s="6" t="n"/>
     </row>
     <row r="166" ht="12.5" customHeight="1">
-      <c r="A166" s="2" t="n">
+      <c r="A166" s="6" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B166" s="4" t="inlineStr">
+      <c r="C166" s="6" t="inlineStr">
         <is>
           <t>"56:06"</t>
         </is>
       </c>
-      <c r="C166" s="4" t="inlineStr">
+      <c r="D166" s="6" t="inlineStr">
         <is>
           <t>Seem like we do it every time.</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F166" t="n">
-        <v>165</v>
-      </c>
+      <c r="E166" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F166" s="6" t="n"/>
     </row>
     <row r="167" ht="12.5" customHeight="1">
-      <c r="A167" s="2" t="n">
+      <c r="A167" s="6" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B167" s="4" t="inlineStr">
+      <c r="C167" s="6" t="inlineStr">
         <is>
           <t>"58:22"</t>
         </is>
       </c>
-      <c r="C167" s="4" t="inlineStr">
+      <c r="D167" s="6" t="inlineStr">
         <is>
           <t>I like your question, we were staying to be it's pretty much similar to many of the others. But what if we just added somewhere to that and somehow including online to that National voting base and online voting</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F167" t="n">
-        <v>166</v>
-      </c>
+      <c r="E167" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F167" s="6" t="n"/>
     </row>
     <row r="168" ht="12.5" customHeight="1">
-      <c r="A168" s="2" t="n">
+      <c r="A168" s="6" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" s="6" t="n">
         <v>10148</v>
       </c>
-      <c r="B168" s="4" t="inlineStr">
+      <c r="C168" s="6" t="inlineStr">
         <is>
           <t>"58:47"</t>
         </is>
       </c>
-      <c r="C168" s="4" t="inlineStr">
+      <c r="D168" s="6" t="inlineStr">
         <is>
           <t>How's that? Anybody else have an edit?</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F168" t="n">
-        <v>167</v>
-      </c>
+      <c r="E168" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F168" s="6" t="n"/>
     </row>
     <row r="169" ht="12.5" customHeight="1">
-      <c r="A169" s="2" t="n">
+      <c r="A169" s="6" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B169" s="4" t="inlineStr">
+      <c r="C169" s="6" t="inlineStr">
         <is>
           <t>"58:52"</t>
         </is>
       </c>
-      <c r="C169" s="4" t="inlineStr">
+      <c r="D169" s="6" t="inlineStr">
         <is>
           <t>Looks good to me. I</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F169" t="n">
-        <v>168</v>
-      </c>
+      <c r="E169" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F169" s="6" t="n"/>
     </row>
     <row r="170" ht="12.5" customHeight="1">
-      <c r="A170" s="2" t="n">
+      <c r="A170" s="6" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B170" s="4" t="inlineStr">
+      <c r="C170" s="6" t="inlineStr">
         <is>
           <t>"58:54"</t>
         </is>
       </c>
-      <c r="C170" s="4" t="inlineStr">
+      <c r="D170" s="6" t="inlineStr">
         <is>
           <t>I like it, too.</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F170" t="n">
-        <v>169</v>
-      </c>
+      <c r="E170" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F170" s="6" t="n"/>
     </row>
     <row r="171" ht="12.5" customHeight="1">
-      <c r="A171" s="2" t="n">
+      <c r="A171" s="6" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B171" s="4" t="inlineStr">
+      <c r="C171" s="6" t="inlineStr">
         <is>
           <t>"58:54"</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F171" t="n">
-        <v>170</v>
-      </c>
+      <c r="D171" s="6" t="n"/>
+      <c r="E171" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F171" s="6" t="n"/>
     </row>
     <row r="172" ht="12.5" customHeight="1">
-      <c r="A172" s="2" t="n">
+      <c r="A172" s="6" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B172" s="4" t="inlineStr">
+      <c r="C172" s="6" t="inlineStr">
         <is>
           <t>"58:54"</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F172" t="n">
-        <v>171</v>
-      </c>
+      <c r="D172" s="6" t="n"/>
+      <c r="E172" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F172" s="6" t="n"/>
     </row>
     <row r="173" ht="12.5" customHeight="1">
-      <c r="A173" s="2" t="n">
+      <c r="A173" s="6" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B173" s="4" t="inlineStr">
+      <c r="C173" s="6" t="inlineStr">
         <is>
           <t>"58:54"</t>
         </is>
       </c>
-      <c r="C173" s="4" t="inlineStr">
+      <c r="D173" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Oh, I agree with that. Sorry.</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F173" t="n">
-        <v>172</v>
-      </c>
+      <c r="E173" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F173" s="6" t="n"/>
     </row>
     <row r="174" ht="12.5" customHeight="1">
-      <c r="A174" s="2" t="n">
+      <c r="A174" s="6" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" s="6" t="n">
         <v>48776</v>
       </c>
-      <c r="B174" s="4" t="inlineStr">
+      <c r="C174" s="6" t="inlineStr">
         <is>
           <t>"59:36"</t>
         </is>
       </c>
-      <c r="C174" s="4" t="inlineStr">
+      <c r="D174" s="6" t="inlineStr">
         <is>
           <t>It looks okay to me.</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F174" t="n">
-        <v>173</v>
-      </c>
+      <c r="E174" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F174" s="6" t="n"/>
     </row>
     <row r="175" ht="12.5" customHeight="1">
-      <c r="A175" s="2" t="n">
+      <c r="A175" s="6" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B175" s="4" t="inlineStr">
+      <c r="C175" s="6" t="inlineStr">
         <is>
           <t>"59:53"</t>
         </is>
       </c>
-      <c r="C175" s="4" t="inlineStr">
+      <c r="D175" s="6" t="inlineStr">
         <is>
           <t>I know I pose this as a negative but I couldn't help it, sir.</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F175" t="n">
-        <v>174</v>
-      </c>
+      <c r="E175" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F175" s="6" t="n"/>
     </row>
     <row r="176" ht="12.5" customHeight="1">
-      <c r="A176" s="2" t="n">
+      <c r="A176" s="6" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B176" s="4" t="inlineStr">
+      <c r="C176" s="6" t="inlineStr">
         <is>
           <t>"59:58"</t>
         </is>
       </c>
-      <c r="C176" s="4" t="inlineStr">
+      <c r="D176" s="6" t="inlineStr">
         <is>
           <t>Well, I really like the question, I think it'd be great to get their opinion on there. There were some good things that Christina W's stayed on there. I, I'd like to understand a little bit more of like, how would, how do people abuse this? And how important is that really compared to like, how many more people you get to register a few?</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F176" t="n">
-        <v>175</v>
-      </c>
+      <c r="E176" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F176" s="6" t="n"/>
     </row>
     <row r="177" ht="12.5" customHeight="1">
-      <c r="A177" s="2" t="n">
+      <c r="A177" s="6" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B177" s="4" t="inlineStr">
+      <c r="C177" s="6" t="inlineStr">
         <is>
           <t>"59:58"</t>
         </is>
       </c>
-      <c r="C177" s="4" t="inlineStr">
+      <c r="D177" s="6" t="inlineStr">
         <is>
           <t>Didn't have this as a hurdle.</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F177" t="n">
-        <v>176</v>
-      </c>
+      <c r="E177" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F177" s="6" t="n"/>
     </row>
     <row r="178" ht="12.5" customHeight="1">
-      <c r="A178" s="2" t="n">
+      <c r="A178" s="6" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B178" s="4" t="inlineStr">
+      <c r="C178" s="6" t="inlineStr">
         <is>
           <t>"60:27"</t>
         </is>
       </c>
-      <c r="C178" s="4" t="inlineStr">
+      <c r="D178" s="6" t="inlineStr">
         <is>
           <t>I agree. I mean, I do know we were comparing this to taxes my taxes. I had my ID stolen one year, so I do know that fraud exists, so I guess it would exist in the voter system as well, but I guess the amount of it, the percentage the ratio is so small that if the IRS is willing to accept it and then I now have a get a PIN number every year which is something that could just be automatically generated that every</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F178" t="n">
-        <v>177</v>
-      </c>
+      <c r="E178" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F178" s="6" t="n"/>
     </row>
     <row r="179" ht="12.5" customHeight="1">
-      <c r="A179" s="2" t="n">
+      <c r="A179" s="6" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B179" s="4" t="inlineStr">
+      <c r="C179" s="6" t="inlineStr">
         <is>
           <t>"60:27"</t>
         </is>
       </c>
-      <c r="C179" s="4" t="inlineStr">
+      <c r="D179" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> citizen could get a PIN number for their vote that year, that would seem to work.</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F179" t="n">
-        <v>178</v>
-      </c>
+      <c r="E179" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F179" s="6" t="n"/>
     </row>
     <row r="180" ht="12.5" customHeight="1">
-      <c r="A180" s="2" t="n">
+      <c r="A180" s="6" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" s="6" t="n">
         <v>48601</v>
       </c>
-      <c r="B180" s="4" t="inlineStr">
+      <c r="C180" s="6" t="inlineStr">
         <is>
           <t>"61:04"</t>
         </is>
       </c>
-      <c r="C180" s="4" t="inlineStr">
+      <c r="D180" s="6" t="inlineStr">
         <is>
           <t>yes, I was thinking maybe if you had a voter number from the day you turned 18 till whenever</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F180" t="n">
-        <v>179</v>
-      </c>
+      <c r="E180" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F180" s="6" t="n"/>
     </row>
     <row r="181" ht="12.5" customHeight="1">
-      <c r="A181" s="2" t="n">
+      <c r="A181" s="6" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B181" s="4" t="inlineStr">
+      <c r="C181" s="6" t="inlineStr">
         <is>
           <t>"61:56"</t>
         </is>
       </c>
-      <c r="C181" s="4" t="inlineStr">
+      <c r="D181" s="6" t="inlineStr">
         <is>
           <t>I wonder if we could, I like this question, but may have a little more.</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F181" t="n">
-        <v>180</v>
-      </c>
+      <c r="E181" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F181" s="6" t="n"/>
     </row>
     <row r="182" ht="12.5" customHeight="1">
-      <c r="A182" s="2" t="n">
+      <c r="A182" s="6" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B182" s="4" t="inlineStr">
+      <c r="C182" s="6" t="inlineStr">
         <is>
           <t>"61:56"</t>
         </is>
       </c>
-      <c r="C182" s="4" t="inlineStr">
+      <c r="D182" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Emphasizing like what would strategies be to having a secure online voting system? And I've got some ideas from my industry on how they could secure that, but it'd be interesting to see the experts to say like is this even viable, can we secure it in different things on that side?</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="E182" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="F182" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. Emphasis on having a secure online voting system.
 2. The user has some ideas from their industry on securing an online voting system.
@@ -4750,479 +4922,373 @@
 4. The user is interested in expert opinions on securing online voting systems, including potential issues.</t>
         </is>
       </c>
-      <c r="F182" t="n">
-        <v>181</v>
-      </c>
     </row>
     <row r="183" ht="12.5" customHeight="1">
-      <c r="A183" s="2" t="n">
+      <c r="A183" s="6" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" s="6" t="n">
         <v>10148</v>
       </c>
-      <c r="B183" s="4" t="inlineStr">
+      <c r="C183" s="6" t="inlineStr">
         <is>
           <t>"62:34"</t>
         </is>
       </c>
-      <c r="C183" s="4" t="inlineStr">
+      <c r="D183" s="6" t="inlineStr">
         <is>
           <t>And would it be a universal system? Also? I mean, you don't have to add that to the question, but I wonder would it be a universal system, or would this be an online voting system that every state had their own? And then it was all scrambled?</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="E183" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="F183" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text raises the question of whether the system being discussed would be a universal one.
 2. The question suggests that there is a possibility of each state having its own online voting system.
 3. The text also mentions the idea of all the systems being "scrambled" together.</t>
         </is>
       </c>
-      <c r="F183" t="n">
-        <v>182</v>
-      </c>
     </row>
     <row r="184" ht="12.5" customHeight="1">
-      <c r="A184" s="2" t="n">
+      <c r="A184" s="6" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" s="6" t="n">
         <v>48627</v>
       </c>
-      <c r="B184" s="4" t="inlineStr">
+      <c r="C184" s="6" t="inlineStr">
         <is>
           <t>"62:52"</t>
         </is>
       </c>
-      <c r="C184" s="4" t="inlineStr">
+      <c r="D184" s="6" t="inlineStr">
         <is>
           <t>Yeah, I was just wondering if we could add a bit about and what would it look like? Like I don't think in our current country we can even agree on what a secure and fair election. Looks like the last one was contested.</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="E184" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="F184" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text suggests adding information about elections.
 2. The focus is on what a secure and fair election looks like.
-3. The text mentions that there is currently no agreement on this topic in the country referred to.
-4. It is implied that the last election in this country was contested.
-5. The text implies that the author is uncertain about the feasibility of adding this information.</t>
-        </is>
-      </c>
-      <c r="F184" t="n">
-        <v>183</v>
+3. The text mentions that there is currently disagreement in the country about this topic.
+4. It is noted that the last election was contested.</t>
+        </is>
       </c>
     </row>
     <row r="185" ht="12.5" customHeight="1">
-      <c r="A185" s="2" t="n">
+      <c r="A185" s="6" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" s="6" t="n">
         <v>10148</v>
       </c>
-      <c r="B185" s="4" t="inlineStr">
+      <c r="C185" s="6" t="inlineStr">
         <is>
           <t>"63:30"</t>
         </is>
       </c>
-      <c r="C185" s="4" t="inlineStr">
+      <c r="D185" s="6" t="inlineStr">
         <is>
           <t>I like that edit Haley.</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F185" t="n">
-        <v>184</v>
-      </c>
+      <c r="E185" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F185" s="6" t="n"/>
     </row>
     <row r="186" ht="12.5" customHeight="1">
-      <c r="A186" s="2" t="n">
+      <c r="A186" s="6" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B186" s="4" t="inlineStr">
+      <c r="C186" s="6" t="inlineStr">
         <is>
           <t>"63:34"</t>
         </is>
       </c>
-      <c r="C186" s="4" t="inlineStr">
+      <c r="D186" s="6" t="inlineStr">
         <is>
           <t>I concur.</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F186" t="n">
-        <v>185</v>
-      </c>
+      <c r="E186" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F186" s="6" t="n"/>
     </row>
     <row r="187" ht="12.5" customHeight="1">
-      <c r="A187" s="2" t="n">
+      <c r="A187" s="6" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B187" s="4" t="inlineStr">
+      <c r="C187" s="6" t="inlineStr">
         <is>
           <t>"64:03"</t>
         </is>
       </c>
-      <c r="C187" s="4" t="inlineStr">
+      <c r="D187" s="6" t="inlineStr">
         <is>
           <t>I think mine's already covered in the one above. I like it. The one of the first one, the best on this kind of thing. So I just move on</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F187" t="n">
-        <v>186</v>
-      </c>
+      <c r="E187" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F187" s="6" t="n"/>
     </row>
     <row r="188" ht="12.5" customHeight="1">
-      <c r="A188" s="2" t="n">
+      <c r="A188" s="6" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" s="6" t="n">
         <v>48662</v>
       </c>
-      <c r="B188" s="4" t="inlineStr">
+      <c r="C188" s="6" t="inlineStr">
         <is>
           <t>"64:03"</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F188" t="n">
-        <v>187</v>
-      </c>
+      <c r="D188" s="6" t="n"/>
+      <c r="E188" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F188" s="6" t="n"/>
     </row>
     <row r="189" ht="12.5" customHeight="1">
-      <c r="A189" s="2" t="n">
+      <c r="A189" s="6" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" s="6" t="n">
         <v>48601</v>
       </c>
-      <c r="B189" s="4" t="inlineStr">
+      <c r="C189" s="6" t="inlineStr">
         <is>
           <t>"64:18"</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F189" t="n">
-        <v>188</v>
-      </c>
+      <c r="D189" s="6" t="n"/>
+      <c r="E189" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F189" s="6" t="n"/>
     </row>
     <row r="190" ht="12.5" customHeight="1">
-      <c r="A190" s="2" t="n">
+      <c r="A190" s="6" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" s="6" t="n">
         <v>10148</v>
       </c>
-      <c r="B190" s="4" t="inlineStr">
+      <c r="C190" s="6" t="inlineStr">
         <is>
           <t>"64:20"</t>
         </is>
       </c>
-      <c r="C190" s="4" t="inlineStr">
+      <c r="D190" s="6" t="inlineStr">
         <is>
           <t>Great minds think alike Roy.</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F190" t="n">
-        <v>189</v>
-      </c>
+      <c r="E190" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F190" s="6" t="n"/>
     </row>
     <row r="191" ht="12.5" customHeight="1">
-      <c r="A191" s="2" t="n">
+      <c r="A191" s="6" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B191" s="4" t="inlineStr">
+      <c r="C191" s="6" t="inlineStr">
         <is>
           <t>"64:30"</t>
         </is>
       </c>
-      <c r="C191" s="4" t="inlineStr">
+      <c r="D191" s="6" t="inlineStr">
         <is>
           <t>but I've got to say, I really wish this was like the time I did it in Texas because we all got to eat together and we became friends and you know, so America in one room, people if you're listening send us somewhere next,</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F191" t="n">
-        <v>190</v>
-      </c>
+      <c r="E191" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F191" s="6" t="n"/>
     </row>
     <row r="192" ht="12.5" customHeight="1">
-      <c r="A192" s="2" t="n">
+      <c r="A192" s="6" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" s="6" t="n">
         <v>10148</v>
       </c>
-      <c r="B192" s="4" t="inlineStr">
+      <c r="C192" s="6" t="inlineStr">
         <is>
           <t>"64:41"</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F192" t="n">
-        <v>191</v>
-      </c>
+      <c r="D192" s="6" t="n"/>
+      <c r="E192" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F192" s="6" t="n"/>
     </row>
     <row r="193" ht="12.5" customHeight="1">
-      <c r="A193" s="2" t="n">
+      <c r="A193" s="6" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" s="6" t="n">
         <v>10148</v>
       </c>
-      <c r="B193" s="4" t="inlineStr">
+      <c r="C193" s="6" t="inlineStr">
         <is>
           <t>"64:41"</t>
         </is>
       </c>
-      <c r="C193" s="4" t="inlineStr">
+      <c r="D193" s="6" t="inlineStr">
         <is>
           <t>I was there to Jay. I was there too. It was a great time.</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F193" t="n">
-        <v>192</v>
-      </c>
+      <c r="E193" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F193" s="6" t="n"/>
     </row>
     <row r="194" ht="12.5" customHeight="1">
-      <c r="A194" s="2" t="n">
+      <c r="A194" s="6" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" s="6" t="n">
         <v>48650</v>
       </c>
-      <c r="B194" s="4" t="inlineStr">
+      <c r="C194" s="6" t="inlineStr">
         <is>
           <t>"65:01"</t>
         </is>
       </c>
-      <c r="C194" s="4" t="inlineStr">
+      <c r="D194" s="6" t="inlineStr">
         <is>
           <t>I should think my question has been answered in one of the first two questions.</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
+      <c r="E194" s="6" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
+      <c r="F194" s="6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 1. The text suggests that the answer to the current question may have been provided in one of the first two questions asked in the conversation.
-2. This implies that the text is a response in a conversation or dialogue, and the speaker believes that the previous questions in the conversation contain the answer to the current question.
-3. The text may be indicating that the conversation has circled back to a previous topic or question, or that the speaker believes the previous answers are sufficient to address the current question.</t>
-        </is>
-      </c>
-      <c r="F194" t="n">
-        <v>193</v>
+2. This implies that the text is a response in a conversation or dialogue, and the speaker believes that the answer to the current question has already been given.
+3. The text does not provide any new information beyond this, and simply refers the reader or listener back to the previous questions.</t>
+        </is>
       </c>
     </row>
     <row r="195" ht="12.5" customHeight="1">
-      <c r="A195" s="2" t="n">
+      <c r="A195" s="6" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" s="6" t="n">
         <v>10148</v>
       </c>
-      <c r="B195" s="4" t="inlineStr">
+      <c r="C195" s="6" t="inlineStr">
         <is>
           <t>"65:46"</t>
         </is>
       </c>
-      <c r="C195" s="4" t="inlineStr">
+      <c r="D195" s="6" t="inlineStr">
         <is>
           <t>Does anybody have the Jeopardy theme song running through their their head?</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F195" t="n">
-        <v>194</v>
-      </c>
+      <c r="E195" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F195" s="6" t="n"/>
     </row>
     <row r="196" ht="12.5" customHeight="1">
-      <c r="A196" s="2" t="n">
+      <c r="A196" s="6" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B196" s="4" t="inlineStr">
+      <c r="C196" s="6" t="inlineStr">
         <is>
           <t>"65:54"</t>
         </is>
       </c>
-      <c r="C196" s="4" t="inlineStr">
+      <c r="D196" s="6" t="inlineStr">
         <is>
           <t>I just finished watching Jeopardy Masters tonight. That was very exciting.</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F196" t="n">
-        <v>195</v>
-      </c>
+      <c r="E196" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F196" s="6" t="n"/>
     </row>
     <row r="197" ht="12.5" customHeight="1">
-      <c r="A197" s="2" t="n">
+      <c r="A197" s="6" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" s="6" t="n">
         <v>48657</v>
       </c>
-      <c r="B197" s="4" t="inlineStr">
+      <c r="C197" s="6" t="inlineStr">
         <is>
           <t>"66:54"</t>
         </is>
       </c>
-      <c r="C197" s="4" t="inlineStr">
+      <c r="D197" s="6" t="inlineStr">
         <is>
           <t>And again, they're going to cut us off after this. So have a nice couple of days. See you on Thursday, folks. And I hope the plenary session. I hope they have good people. The first one was sort of boring but this last one was a little better. I hope they mentioned something about what's going on in the country today. That would be sort of interesting. We happen to be here on a very interesting day.</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F197" t="n">
-        <v>196</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.5"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>proposal</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="14.5" customHeight="1">
-      <c r="A2" s="5" t="inlineStr">
-        <is>
-          <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="14.5" customHeight="1">
-      <c r="A3" s="5" t="inlineStr">
-        <is>
-          <t>Change the primary system</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="14.5" customHeight="1">
-      <c r="A4" s="5" t="inlineStr">
-        <is>
-          <t>Use proportional representatives to elect elected officials</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="14.5" customHeight="1">
-      <c r="A5" s="5" t="inlineStr">
-        <is>
-          <t>Change the current electoral college</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="14.5" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>Implement more accessibility to voting</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="14.5" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="14.5" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t>Implement voting standards that are less strict</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="14.5" customHeight="1">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>Implement more measures to address voter fraud</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="14.5" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t>Implement more fairness and transparency in the election process</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="14.5" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
-        <is>
-          <t>Implement limits on financing individual candidates and parties</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="14.5" customHeight="1">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t>Increase in public funding and financing for campaigns</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="14.5" customHeight="1">
-      <c r="A13" s="5" t="inlineStr">
-        <is>
-          <t>Implement a term limit for Supreme Court Justices</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="14.5" customHeight="1">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>Increase opportunities for learning about civic education in schools</t>
-        </is>
-      </c>
+      <c r="E197" s="6" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F197" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
